--- a/data/trans_orig/P57_AC_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P57_AC_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A652C87B-6689-4352-B9FF-6F9314DE881A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{35216632-865B-4DBB-A24D-C7F45DD12907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{41DB079D-6F03-4923-B123-E5B19331AD8B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{ACB79EBE-4B0C-4F11-9DDB-E4FA5A85C9BB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="504">
-  <si>
-    <t>dukeCdic en 2007 (Tasa respuesta: 99,94%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="496">
+  <si>
+    <t>Población con apoyo confidencial bajo (Duke) en 2007 (Tasa respuesta: 99,94%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -77,28 +77,28 @@
     <t>7,45%</t>
   </si>
   <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
   </si>
   <si>
     <t>9,86%</t>
   </si>
   <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
   </si>
   <si>
     <t>8,62%</t>
   </si>
   <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
   </si>
   <si>
     <t>Apoyo normal</t>
@@ -107,28 +107,28 @@
     <t>92,55%</t>
   </si>
   <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
   </si>
   <si>
     <t>90,14%</t>
   </si>
   <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
   </si>
   <si>
     <t>91,38%</t>
   </si>
   <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1309 +140,1297 @@
     <t>8,08%</t>
   </si>
   <si>
-    <t>6,23%</t>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>78,34%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>64,93%</t>
+  </si>
+  <si>
+    <t>72,15%</t>
+  </si>
+  <si>
+    <t>71,07%</t>
+  </si>
+  <si>
+    <t>68,52%</t>
+  </si>
+  <si>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con apoyo confidencial bajo (Duke) en 2012 (Tasa respuesta: 99,31%)</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>73,17%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>75,55%</t>
+  </si>
+  <si>
+    <t>71,21%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>71,35%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>69,86%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>74,83%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>Población con apoyo confidencial bajo (Duke) en 2015 (Tasa respuesta: 99,45%)</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>73,75%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>69,9%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>75,98%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>70,51%</t>
+  </si>
+  <si>
+    <t>66,44%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>70,85%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>Población con apoyo confidencial bajo (Duke) en 2023 (Tasa respuesta: 98,67%)</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
   </si>
   <si>
     <t>10,3%</t>
   </si>
   <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
   </si>
   <si>
     <t>89,7%</t>
   </si>
   <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>75,15%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
-  </si>
-  <si>
-    <t>72,28%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>77,95%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>64,59%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>68,57%</t>
-  </si>
-  <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
   </si>
   <si>
     <t>15,94%</t>
   </si>
   <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
   </si>
   <si>
     <t>84,06%</t>
   </si>
   <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>dukeCdic en 2012 (Tasa respuesta: 99,31%)</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>70,86%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>71,35%</t>
-  </si>
-  <si>
-    <t>66,73%</t>
-  </si>
-  <si>
-    <t>75,17%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>70,04%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
-  </si>
-  <si>
-    <t>69,84%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>79,15%</t>
-  </si>
-  <si>
-    <t>dukeCdic en 2015 (Tasa respuesta: 99,45%)</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>73,37%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>69,81%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
-  </si>
-  <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>70,51%</t>
-  </si>
-  <si>
-    <t>66,93%</t>
-  </si>
-  <si>
-    <t>73,86%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>70,5%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>dukeCdic en 2023 (Tasa respuesta: 98,67%)</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
+    <t>90,2%</t>
   </si>
   <si>
     <t>87,95%</t>
   </si>
   <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
+    <t>85,9%</t>
   </si>
   <si>
     <t>87,51%</t>
   </si>
   <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
   </si>
   <si>
     <t>18,29%</t>
   </si>
   <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
+    <t>21,29%</t>
   </si>
   <si>
     <t>20,56%</t>
   </si>
   <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
   </si>
   <si>
     <t>19,42%</t>
   </si>
   <si>
-    <t>21,73%</t>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
   </si>
   <si>
     <t>81,71%</t>
   </si>
   <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
+    <t>78,71%</t>
   </si>
   <si>
     <t>79,44%</t>
   </si>
   <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
+    <t>76,45%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
   </si>
   <si>
     <t>80,58%</t>
   </si>
   <si>
-    <t>78,27%</t>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
   </si>
   <si>
     <t>19,57%</t>
@@ -1451,31 +1439,25 @@
     <t>17,25%</t>
   </si>
   <si>
-    <t>22,04%</t>
+    <t>22,09%</t>
   </si>
   <si>
     <t>25,26%</t>
   </si>
   <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
+    <t>23,07%</t>
   </si>
   <si>
     <t>22,79%</t>
   </si>
   <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
+    <t>21,06%</t>
   </si>
   <si>
     <t>80,43%</t>
   </si>
   <si>
-    <t>77,96%</t>
+    <t>77,91%</t>
   </si>
   <si>
     <t>82,75%</t>
@@ -1484,73 +1466,67 @@
     <t>74,74%</t>
   </si>
   <si>
-    <t>72,23%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
+    <t>76,93%</t>
   </si>
   <si>
     <t>77,21%</t>
   </si>
   <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
+    <t>78,94%</t>
   </si>
   <si>
     <t>13,65%</t>
   </si>
   <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
   </si>
   <si>
     <t>15,07%</t>
   </si>
   <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
   </si>
   <si>
     <t>14,39%</t>
   </si>
   <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
   </si>
   <si>
     <t>86,35%</t>
   </si>
   <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
   </si>
   <si>
     <t>84,93%</t>
   </si>
   <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
   </si>
   <si>
     <t>85,61%</t>
   </si>
   <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
   </si>
 </sst>
 </file>
@@ -1962,7 +1938,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21FF8706-EFD6-4E70-AA0C-681B005BDD56}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1249E1CB-BD41-4DC9-B187-95CC35D1E309}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3043,7 +3019,7 @@
         <v>1065</v>
       </c>
       <c r="N22" s="7">
-        <v>1107513</v>
+        <v>1107512</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>132</v>
@@ -3145,7 +3121,7 @@
         <v>6507</v>
       </c>
       <c r="N24" s="7">
-        <v>6650976</v>
+        <v>6650975</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -3181,7 +3157,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0290CED5-A162-4827-8E46-FE82C6B1C7A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BB14665-B217-4ADF-B1AE-19A26CB8AE7C}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3633,10 +3609,10 @@
         <v>185</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M10" s="7">
         <v>248</v>
@@ -3645,13 +3621,13 @@
         <v>259844</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3666,13 +3642,13 @@
         <v>556088</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H11" s="7">
         <v>532</v>
@@ -3681,13 +3657,13 @@
         <v>568855</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>195</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>196</v>
+        <v>141</v>
       </c>
       <c r="M11" s="7">
         <v>1062</v>
@@ -3696,13 +3672,13 @@
         <v>1124943</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3770,13 +3746,13 @@
         <v>116946</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="H13" s="7">
         <v>120</v>
@@ -3785,13 +3761,13 @@
         <v>141559</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="M13" s="7">
         <v>227</v>
@@ -3800,13 +3776,13 @@
         <v>258505</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3821,13 +3797,13 @@
         <v>493573</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="H14" s="7">
         <v>418</v>
@@ -3836,28 +3812,28 @@
         <v>473663</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="M14" s="7">
         <v>855</v>
       </c>
       <c r="N14" s="7">
-        <v>967236</v>
+        <v>967237</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3899,7 +3875,7 @@
         <v>1082</v>
       </c>
       <c r="N15" s="7">
-        <v>1225741</v>
+        <v>1225742</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3925,13 +3901,13 @@
         <v>72942</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="H16" s="7">
         <v>97</v>
@@ -3940,13 +3916,13 @@
         <v>109227</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="M16" s="7">
         <v>162</v>
@@ -3955,13 +3931,13 @@
         <v>182169</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3976,13 +3952,13 @@
         <v>352225</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="H17" s="7">
         <v>308</v>
@@ -3991,28 +3967,28 @@
         <v>337533</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="M17" s="7">
         <v>632</v>
       </c>
       <c r="N17" s="7">
-        <v>689758</v>
+        <v>689759</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4054,7 +4030,7 @@
         <v>794</v>
       </c>
       <c r="N18" s="7">
-        <v>871927</v>
+        <v>871928</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4080,13 +4056,13 @@
         <v>158284</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="H19" s="7">
         <v>183</v>
@@ -4095,13 +4071,13 @@
         <v>195196</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="M19" s="7">
         <v>325</v>
@@ -4110,13 +4086,13 @@
         <v>353479</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4131,13 +4107,13 @@
         <v>394138</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H20" s="7">
         <v>501</v>
@@ -4146,13 +4122,13 @@
         <v>535780</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M20" s="7">
         <v>856</v>
@@ -4161,13 +4137,13 @@
         <v>929919</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4235,13 +4211,13 @@
         <v>622911</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>255</v>
+        <v>166</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="H22" s="7">
         <v>686</v>
@@ -4250,13 +4226,13 @@
         <v>751091</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>184</v>
+        <v>252</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="M22" s="7">
         <v>1258</v>
@@ -4265,13 +4241,13 @@
         <v>1374002</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>96</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4283,16 +4259,16 @@
         <v>2610</v>
       </c>
       <c r="D23" s="7">
-        <v>2776086</v>
+        <v>2776087</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>263</v>
+        <v>174</v>
       </c>
       <c r="H23" s="7">
         <v>2594</v>
@@ -4301,13 +4277,13 @@
         <v>2787141</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>192</v>
+        <v>258</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="M23" s="7">
         <v>5204</v>
@@ -4316,10 +4292,10 @@
         <v>5563228</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>106</v>
@@ -4334,7 +4310,7 @@
         <v>3182</v>
       </c>
       <c r="D24" s="7">
-        <v>3398997</v>
+        <v>3398998</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -4400,7 +4376,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FC01D24-114D-400E-BBC5-5B22096F1F6E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98F7A96B-CA3E-4454-86F8-B27D5235ED58}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4417,7 +4393,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4524,13 +4500,13 @@
         <v>34838</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="H4" s="7">
         <v>36</v>
@@ -4539,13 +4515,13 @@
         <v>35603</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="M4" s="7">
         <v>67</v>
@@ -4554,13 +4530,13 @@
         <v>70441</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4575,13 +4551,13 @@
         <v>384625</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="H5" s="7">
         <v>367</v>
@@ -4590,13 +4566,13 @@
         <v>359190</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="M5" s="7">
         <v>729</v>
@@ -4605,13 +4581,13 @@
         <v>743815</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4679,13 +4655,13 @@
         <v>60828</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="H7" s="7">
         <v>56</v>
@@ -4694,13 +4670,13 @@
         <v>54612</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="M7" s="7">
         <v>113</v>
@@ -4709,13 +4685,13 @@
         <v>115440</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4730,13 +4706,13 @@
         <v>520530</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="H8" s="7">
         <v>520</v>
@@ -4745,13 +4721,13 @@
         <v>505557</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="M8" s="7">
         <v>1023</v>
@@ -4760,13 +4736,13 @@
         <v>1026087</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4837,10 +4813,10 @@
         <v>57</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>306</v>
+        <v>166</v>
       </c>
       <c r="H10" s="7">
         <v>89</v>
@@ -4849,13 +4825,13 @@
         <v>89851</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="M10" s="7">
         <v>178</v>
@@ -4864,13 +4840,13 @@
         <v>183443</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4888,10 +4864,10 @@
         <v>66</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>313</v>
+        <v>174</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="H11" s="7">
         <v>572</v>
@@ -4900,13 +4876,13 @@
         <v>567698</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="M11" s="7">
         <v>1120</v>
@@ -4915,13 +4891,13 @@
         <v>1142337</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4989,13 +4965,13 @@
         <v>147665</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="H13" s="7">
         <v>115</v>
@@ -5004,13 +4980,13 @@
         <v>122718</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="M13" s="7">
         <v>248</v>
@@ -5019,13 +4995,13 @@
         <v>270383</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>327</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5040,13 +5016,13 @@
         <v>494046</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="H14" s="7">
         <v>482</v>
@@ -5055,13 +5031,13 @@
         <v>520580</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="M14" s="7">
         <v>927</v>
@@ -5070,13 +5046,13 @@
         <v>1014626</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>336</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5144,13 +5120,13 @@
         <v>104924</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>53</v>
+        <v>328</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="H16" s="7">
         <v>112</v>
@@ -5159,13 +5135,13 @@
         <v>127886</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="M16" s="7">
         <v>205</v>
@@ -5174,13 +5150,13 @@
         <v>232810</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>73</v>
+        <v>334</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5195,13 +5171,13 @@
         <v>371856</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>61</v>
+        <v>338</v>
       </c>
       <c r="H17" s="7">
         <v>317</v>
@@ -5210,13 +5186,13 @@
         <v>364411</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="M17" s="7">
         <v>647</v>
@@ -5225,13 +5201,13 @@
         <v>736267</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>82</v>
+        <v>344</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5299,13 +5275,13 @@
         <v>136471</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="H19" s="7">
         <v>190</v>
@@ -5314,13 +5290,13 @@
         <v>228119</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="M19" s="7">
         <v>335</v>
@@ -5329,13 +5305,13 @@
         <v>364590</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5350,13 +5326,13 @@
         <v>452933</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="H20" s="7">
         <v>461</v>
@@ -5365,13 +5341,13 @@
         <v>545456</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="M20" s="7">
         <v>941</v>
@@ -5380,13 +5356,13 @@
         <v>998389</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5454,13 +5430,13 @@
         <v>578318</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="H22" s="7">
         <v>598</v>
@@ -5472,10 +5448,10 @@
         <v>76</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="M22" s="7">
         <v>1146</v>
@@ -5484,13 +5460,13 @@
         <v>1237107</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5505,13 +5481,13 @@
         <v>2798630</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="H23" s="7">
         <v>2719</v>
@@ -5523,10 +5499,10 @@
         <v>85</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="M23" s="7">
         <v>5387</v>
@@ -5535,13 +5511,13 @@
         <v>5661522</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5619,7 +5595,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{290EFB42-A192-4F6F-847B-8BF0D05C461B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFDCAC1A-9E32-480E-8697-DC66D442D058}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5636,7 +5612,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5743,13 +5719,13 @@
         <v>14529</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="H4" s="7">
         <v>16</v>
@@ -5758,13 +5734,13 @@
         <v>28970</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="M4" s="7">
         <v>23</v>
@@ -5773,13 +5749,13 @@
         <v>43499</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5794,13 +5770,13 @@
         <v>358745</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="H5" s="7">
         <v>186</v>
@@ -5809,13 +5785,13 @@
         <v>317382</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="M5" s="7">
         <v>349</v>
@@ -5824,13 +5800,13 @@
         <v>676127</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5898,13 +5874,13 @@
         <v>38047</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="H7" s="7">
         <v>37</v>
@@ -5913,13 +5889,13 @@
         <v>36220</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="M7" s="7">
         <v>69</v>
@@ -5928,13 +5904,13 @@
         <v>74267</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5949,13 +5925,13 @@
         <v>388969</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="H8" s="7">
         <v>419</v>
@@ -5964,13 +5940,13 @@
         <v>459141</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="M8" s="7">
         <v>688</v>
@@ -5979,13 +5955,13 @@
         <v>848110</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6053,13 +6029,13 @@
         <v>68811</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>423</v>
+        <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="H10" s="7">
         <v>72</v>
@@ -6068,13 +6044,13 @@
         <v>48077</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>39</v>
+        <v>418</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="M10" s="7">
         <v>142</v>
@@ -6083,13 +6059,13 @@
         <v>116889</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>34</v>
+        <v>421</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>388</v>
+        <v>422</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6104,13 +6080,13 @@
         <v>484306</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>430</v>
+        <v>24</v>
       </c>
       <c r="H11" s="7">
         <v>771</v>
@@ -6119,13 +6095,13 @@
         <v>533595</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>49</v>
+        <v>426</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="M11" s="7">
         <v>1242</v>
@@ -6134,13 +6110,13 @@
         <v>1017901</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>42</v>
+        <v>429</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>396</v>
+        <v>431</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6208,13 +6184,13 @@
         <v>92619</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>436</v>
       </c>
       <c r="H13" s="7">
         <v>140</v>
@@ -6223,13 +6199,13 @@
         <v>88842</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>438</v>
+        <v>287</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="M13" s="7">
         <v>230</v>
@@ -6238,13 +6214,13 @@
         <v>181460</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6259,13 +6235,13 @@
         <v>623165</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H14" s="7">
         <v>987</v>
@@ -6274,13 +6250,13 @@
         <v>648541</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>448</v>
+        <v>296</v>
       </c>
       <c r="M14" s="7">
         <v>1554</v>
@@ -6289,13 +6265,13 @@
         <v>1271707</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6363,13 +6339,13 @@
         <v>109251</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>453</v>
+        <v>183</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="H16" s="7">
         <v>192</v>
@@ -6378,13 +6354,13 @@
         <v>121137</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="M16" s="7">
         <v>312</v>
@@ -6393,13 +6369,13 @@
         <v>230389</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>134</v>
+        <v>454</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6414,13 +6390,13 @@
         <v>488182</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>462</v>
+        <v>192</v>
       </c>
       <c r="H17" s="7">
         <v>796</v>
@@ -6429,13 +6405,13 @@
         <v>467999</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="M17" s="7">
         <v>1336</v>
@@ -6444,13 +6420,13 @@
         <v>956180</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>142</v>
+        <v>463</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6518,13 +6494,13 @@
         <v>134212</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="H19" s="7">
         <v>411</v>
@@ -6533,13 +6509,13 @@
         <v>226036</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>473</v>
+        <v>94</v>
       </c>
       <c r="M19" s="7">
         <v>610</v>
@@ -6548,13 +6524,13 @@
         <v>360247</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>476</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6569,13 +6545,13 @@
         <v>551533</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="H20" s="7">
         <v>1260</v>
@@ -6584,13 +6560,13 @@
         <v>668655</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>481</v>
+        <v>102</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="M20" s="7">
         <v>2072</v>
@@ -6599,13 +6575,13 @@
         <v>1220189</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>484</v>
+        <v>105</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6673,13 +6649,13 @@
         <v>457469</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="H22" s="7">
         <v>868</v>
@@ -6688,13 +6664,13 @@
         <v>549282</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="M22" s="7">
         <v>1386</v>
@@ -6703,13 +6679,13 @@
         <v>1006751</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6724,13 +6700,13 @@
         <v>2894901</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="H23" s="7">
         <v>4419</v>
@@ -6739,13 +6715,13 @@
         <v>3095314</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="M23" s="7">
         <v>7241</v>
@@ -6754,13 +6730,13 @@
         <v>5990215</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P57_AC_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P57_AC_R-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35216632-865B-4DBB-A24D-C7F45DD12907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEFB9CD9-D969-44A6-8AC1-0D8717D9D7AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{ACB79EBE-4B0C-4F11-9DDB-E4FA5A85C9BB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5516F197-AEA2-43A0-AF15-8C0326BCD199}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="498">
   <si>
     <t>Población con apoyo confidencial bajo (Duke) en 2007 (Tasa respuesta: 99,94%)</t>
   </si>
@@ -77,10 +77,10 @@
     <t>7,45%</t>
   </si>
   <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
   </si>
   <si>
     <t>9,86%</t>
@@ -89,16 +89,16 @@
     <t>7,11%</t>
   </si>
   <si>
-    <t>12,6%</t>
+    <t>12,48%</t>
   </si>
   <si>
     <t>8,62%</t>
   </si>
   <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
   </si>
   <si>
     <t>Apoyo normal</t>
@@ -107,16 +107,16 @@
     <t>92,55%</t>
   </si>
   <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
   </si>
   <si>
     <t>90,14%</t>
   </si>
   <si>
-    <t>87,4%</t>
+    <t>87,52%</t>
   </si>
   <si>
     <t>92,89%</t>
@@ -125,10 +125,10 @@
     <t>91,38%</t>
   </si>
   <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>8,08%</t>
   </si>
   <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
   </si>
   <si>
     <t>11,79%</t>
   </si>
   <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
   </si>
   <si>
     <t>9,78%</t>
   </si>
   <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
   </si>
   <si>
     <t>91,92%</t>
   </si>
   <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
   </si>
   <si>
     <t>88,21%</t>
   </si>
   <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
   </si>
   <si>
     <t>90,22%</t>
   </si>
   <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -197,1279 +197,1285 @@
     <t>14,75%</t>
   </si>
   <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
     <t>12,07%</t>
   </si>
   <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
   </si>
   <si>
     <t>16,18%</t>
   </si>
   <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>81,86%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
   </si>
   <si>
     <t>83,82%</t>
   </si>
   <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
     <t>55/64</t>
   </si>
   <si>
     <t>20,28%</t>
   </si>
   <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
   </si>
   <si>
     <t>22,98%</t>
   </si>
   <si>
-    <t>18,79%</t>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>72,83%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>78,34%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>70,46%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>71,07%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con apoyo confidencial bajo (Duke) en 2012 (Tasa respuesta: 99,31%)</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>73,2%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>76,34%</t>
+  </si>
+  <si>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>75,55%</t>
+  </si>
+  <si>
+    <t>71,28%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>71,35%</t>
+  </si>
+  <si>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>69,94%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>Población con apoyo confidencial bajo (Duke) en 2016 (Tasa respuesta: 99,45%)</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
+  </si>
+  <si>
+    <t>78,4%</t>
+  </si>
+  <si>
+    <t>75,98%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>73,37%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>70,51%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>Población con apoyo confidencial bajo (Duke) en 2023 (Tasa respuesta: 98,67%)</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
+  </si>
+  <si>
+    <t>80,58%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
   </si>
   <si>
     <t>27,55%</t>
   </si>
   <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
   </si>
   <si>
     <t>24,43%</t>
   </si>
   <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
   </si>
   <si>
     <t>72,45%</t>
   </si>
   <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
+    <t>76,93%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
   </si>
   <si>
     <t>75,57%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>64,93%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>68,52%</t>
-  </si>
-  <si>
-    <t>73,77%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con apoyo confidencial bajo (Duke) en 2012 (Tasa respuesta: 99,31%)</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>73,17%</t>
-  </si>
-  <si>
-    <t>80,63%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>71,21%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>75,94%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>71,35%</t>
-  </si>
-  <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>69,86%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
-  </si>
-  <si>
-    <t>74,83%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>Población con apoyo confidencial bajo (Duke) en 2015 (Tasa respuesta: 99,45%)</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>83,43%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>73,13%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
-  </si>
-  <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>70,51%</t>
-  </si>
-  <si>
-    <t>66,44%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>70,85%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>Población con apoyo confidencial bajo (Duke) en 2023 (Tasa respuesta: 98,67%)</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>81,84%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>78,63%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
   </si>
   <si>
     <t>78,94%</t>
@@ -1938,7 +1944,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1249E1CB-BD41-4DC9-B187-95CC35D1E309}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE20A8D-1234-449F-91CE-0A2E341B2330}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3019,7 +3025,7 @@
         <v>1065</v>
       </c>
       <c r="N22" s="7">
-        <v>1107512</v>
+        <v>1107513</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>132</v>
@@ -3121,7 +3127,7 @@
         <v>6507</v>
       </c>
       <c r="N24" s="7">
-        <v>6650975</v>
+        <v>6650976</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -3157,7 +3163,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BB14665-B217-4ADF-B1AE-19A26CB8AE7C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{883CB266-6E0F-4D24-974D-60E965F29F11}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3609,10 +3615,10 @@
         <v>185</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>132</v>
+        <v>186</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M10" s="7">
         <v>248</v>
@@ -3621,13 +3627,13 @@
         <v>259844</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3642,13 +3648,13 @@
         <v>556088</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H11" s="7">
         <v>532</v>
@@ -3657,13 +3663,13 @@
         <v>568855</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>141</v>
+        <v>196</v>
       </c>
       <c r="M11" s="7">
         <v>1062</v>
@@ -3672,13 +3678,13 @@
         <v>1124943</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3746,13 +3752,13 @@
         <v>116946</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H13" s="7">
         <v>120</v>
@@ -3761,13 +3767,13 @@
         <v>141559</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M13" s="7">
         <v>227</v>
@@ -3776,13 +3782,13 @@
         <v>258505</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3797,13 +3803,13 @@
         <v>493573</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H14" s="7">
         <v>418</v>
@@ -3812,13 +3818,13 @@
         <v>473663</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M14" s="7">
         <v>855</v>
@@ -3827,13 +3833,13 @@
         <v>967237</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3901,28 +3907,28 @@
         <v>72942</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H16" s="7">
         <v>97</v>
       </c>
       <c r="I16" s="7">
-        <v>109227</v>
+        <v>109228</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M16" s="7">
         <v>162</v>
@@ -3931,13 +3937,13 @@
         <v>182169</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3952,13 +3958,13 @@
         <v>352225</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H17" s="7">
         <v>308</v>
@@ -3967,28 +3973,28 @@
         <v>337533</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M17" s="7">
         <v>632</v>
       </c>
       <c r="N17" s="7">
-        <v>689759</v>
+        <v>689758</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4015,7 +4021,7 @@
         <v>405</v>
       </c>
       <c r="I18" s="7">
-        <v>446760</v>
+        <v>446761</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4030,7 +4036,7 @@
         <v>794</v>
       </c>
       <c r="N18" s="7">
-        <v>871928</v>
+        <v>871927</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4056,13 +4062,13 @@
         <v>158284</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H19" s="7">
         <v>183</v>
@@ -4071,13 +4077,13 @@
         <v>195196</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M19" s="7">
         <v>325</v>
@@ -4086,13 +4092,13 @@
         <v>353479</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4107,13 +4113,13 @@
         <v>394138</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="H20" s="7">
         <v>501</v>
@@ -4122,13 +4128,13 @@
         <v>535780</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="M20" s="7">
         <v>856</v>
@@ -4137,13 +4143,13 @@
         <v>929919</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4211,13 +4217,13 @@
         <v>622911</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>166</v>
+        <v>255</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="H22" s="7">
         <v>686</v>
@@ -4226,13 +4232,13 @@
         <v>751091</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="M22" s="7">
         <v>1258</v>
@@ -4241,13 +4247,13 @@
         <v>1374002</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>96</v>
+        <v>260</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4259,16 +4265,16 @@
         <v>2610</v>
       </c>
       <c r="D23" s="7">
-        <v>2776087</v>
+        <v>2776086</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>174</v>
+        <v>264</v>
       </c>
       <c r="H23" s="7">
         <v>2594</v>
@@ -4277,28 +4283,28 @@
         <v>2787141</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="M23" s="7">
         <v>5204</v>
       </c>
       <c r="N23" s="7">
-        <v>5563228</v>
+        <v>5563227</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>106</v>
+        <v>269</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4310,7 +4316,7 @@
         <v>3182</v>
       </c>
       <c r="D24" s="7">
-        <v>3398998</v>
+        <v>3398997</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -4340,7 +4346,7 @@
         <v>6462</v>
       </c>
       <c r="N24" s="7">
-        <v>6937230</v>
+        <v>6937229</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -4376,7 +4382,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98F7A96B-CA3E-4454-86F8-B27D5235ED58}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF709594-60D3-4A90-8603-F1BCB87AC53B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4393,7 +4399,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4500,13 +4506,13 @@
         <v>34838</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="H4" s="7">
         <v>36</v>
@@ -4515,13 +4521,13 @@
         <v>35603</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="M4" s="7">
         <v>67</v>
@@ -4530,13 +4536,13 @@
         <v>70441</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4551,13 +4557,13 @@
         <v>384625</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="H5" s="7">
         <v>367</v>
@@ -4566,13 +4572,13 @@
         <v>359190</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="M5" s="7">
         <v>729</v>
@@ -4581,13 +4587,13 @@
         <v>743815</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4655,13 +4661,13 @@
         <v>60828</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="H7" s="7">
         <v>56</v>
@@ -4670,13 +4676,13 @@
         <v>54612</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="M7" s="7">
         <v>113</v>
@@ -4685,13 +4691,13 @@
         <v>115440</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4706,13 +4712,13 @@
         <v>520530</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="H8" s="7">
         <v>520</v>
@@ -4721,13 +4727,13 @@
         <v>505557</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="M8" s="7">
         <v>1023</v>
@@ -4736,13 +4742,13 @@
         <v>1026087</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4813,10 +4819,10 @@
         <v>57</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>166</v>
+        <v>308</v>
       </c>
       <c r="H10" s="7">
         <v>89</v>
@@ -4825,13 +4831,13 @@
         <v>89851</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>302</v>
+        <v>189</v>
       </c>
       <c r="M10" s="7">
         <v>178</v>
@@ -4840,13 +4846,13 @@
         <v>183443</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4864,10 +4870,10 @@
         <v>66</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>174</v>
+        <v>314</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="H11" s="7">
         <v>572</v>
@@ -4876,13 +4882,13 @@
         <v>567698</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>308</v>
+        <v>199</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="M11" s="7">
         <v>1120</v>
@@ -4891,13 +4897,13 @@
         <v>1142337</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4965,13 +4971,13 @@
         <v>147665</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="H13" s="7">
         <v>115</v>
@@ -4980,13 +4986,13 @@
         <v>122718</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="M13" s="7">
         <v>248</v>
@@ -4995,13 +5001,13 @@
         <v>270383</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>318</v>
+        <v>190</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>326</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5016,13 +5022,13 @@
         <v>494046</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="H14" s="7">
         <v>482</v>
@@ -5031,13 +5037,13 @@
         <v>520580</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="M14" s="7">
         <v>927</v>
@@ -5046,13 +5052,13 @@
         <v>1014626</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>325</v>
+        <v>198</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>334</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5120,13 +5126,13 @@
         <v>104924</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="H16" s="7">
         <v>112</v>
@@ -5135,13 +5141,13 @@
         <v>127886</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="M16" s="7">
         <v>205</v>
@@ -5150,13 +5156,13 @@
         <v>232810</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>335</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5171,13 +5177,13 @@
         <v>371856</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="H17" s="7">
         <v>317</v>
@@ -5186,13 +5192,13 @@
         <v>364411</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="M17" s="7">
         <v>647</v>
@@ -5201,13 +5207,13 @@
         <v>736267</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>343</v>
+        <v>248</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5275,13 +5281,13 @@
         <v>136471</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="H19" s="7">
         <v>190</v>
@@ -5290,13 +5296,13 @@
         <v>228119</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="M19" s="7">
         <v>335</v>
@@ -5305,13 +5311,13 @@
         <v>364590</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>351</v>
+        <v>322</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5326,13 +5332,13 @@
         <v>452933</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="H20" s="7">
         <v>461</v>
@@ -5341,13 +5347,13 @@
         <v>545456</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="M20" s="7">
         <v>941</v>
@@ -5356,13 +5362,13 @@
         <v>998389</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>360</v>
+        <v>328</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5430,13 +5436,13 @@
         <v>578318</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="H22" s="7">
         <v>598</v>
@@ -5448,10 +5454,10 @@
         <v>76</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="M22" s="7">
         <v>1146</v>
@@ -5460,13 +5466,13 @@
         <v>1237107</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>369</v>
+        <v>255</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>370</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5481,13 +5487,13 @@
         <v>2798630</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H23" s="7">
         <v>2719</v>
@@ -5499,10 +5505,10 @@
         <v>85</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="M23" s="7">
         <v>5387</v>
@@ -5511,13 +5517,13 @@
         <v>5661522</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>377</v>
+        <v>269</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>378</v>
+        <v>264</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5595,7 +5601,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFDCAC1A-9E32-480E-8697-DC66D442D058}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73693151-7E81-47AA-A62F-7D17E52CF46C}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5734,13 +5740,13 @@
         <v>28970</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>385</v>
       </c>
       <c r="M4" s="7">
         <v>23</v>
@@ -5749,13 +5755,13 @@
         <v>43499</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5770,13 +5776,13 @@
         <v>358745</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>391</v>
       </c>
       <c r="H5" s="7">
         <v>186</v>
@@ -5785,13 +5791,13 @@
         <v>317382</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>394</v>
       </c>
       <c r="M5" s="7">
         <v>349</v>
@@ -5800,13 +5806,13 @@
         <v>676127</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5874,13 +5880,13 @@
         <v>38047</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>400</v>
       </c>
       <c r="H7" s="7">
         <v>37</v>
@@ -5889,13 +5895,13 @@
         <v>36220</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>403</v>
       </c>
       <c r="M7" s="7">
         <v>69</v>
@@ -5904,13 +5910,13 @@
         <v>74267</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5925,13 +5931,13 @@
         <v>388969</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>409</v>
       </c>
       <c r="H8" s="7">
         <v>419</v>
@@ -5940,13 +5946,13 @@
         <v>459141</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>412</v>
       </c>
       <c r="M8" s="7">
         <v>688</v>
@@ -5955,13 +5961,13 @@
         <v>848110</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6029,13 +6035,13 @@
         <v>68811</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="H10" s="7">
         <v>72</v>
@@ -6044,13 +6050,13 @@
         <v>48077</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>420</v>
       </c>
       <c r="M10" s="7">
         <v>142</v>
@@ -6059,13 +6065,13 @@
         <v>116889</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6080,10 +6086,10 @@
         <v>484306</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>24</v>
@@ -6095,13 +6101,13 @@
         <v>533595</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>428</v>
       </c>
       <c r="M11" s="7">
         <v>1242</v>
@@ -6110,13 +6116,13 @@
         <v>1017901</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6184,13 +6190,13 @@
         <v>92619</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>432</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>434</v>
       </c>
       <c r="H13" s="7">
         <v>140</v>
@@ -6199,13 +6205,13 @@
         <v>88842</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="M13" s="7">
         <v>230</v>
@@ -6214,13 +6220,13 @@
         <v>181460</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>437</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6235,13 +6241,13 @@
         <v>623165</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>440</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>442</v>
       </c>
       <c r="H14" s="7">
         <v>987</v>
@@ -6250,13 +6256,13 @@
         <v>648541</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="M14" s="7">
         <v>1554</v>
@@ -6265,13 +6271,13 @@
         <v>1271707</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>445</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6339,13 +6345,13 @@
         <v>109251</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>448</v>
+        <v>336</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>183</v>
+        <v>446</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H16" s="7">
         <v>192</v>
@@ -6354,13 +6360,13 @@
         <v>121137</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>450</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>452</v>
       </c>
       <c r="M16" s="7">
         <v>312</v>
@@ -6369,13 +6375,13 @@
         <v>230389</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>453</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6390,13 +6396,13 @@
         <v>488182</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>456</v>
+        <v>345</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>192</v>
+        <v>455</v>
       </c>
       <c r="H17" s="7">
         <v>796</v>
@@ -6405,13 +6411,13 @@
         <v>467999</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>458</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>460</v>
       </c>
       <c r="M17" s="7">
         <v>1336</v>
@@ -6420,13 +6426,13 @@
         <v>956180</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>461</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6494,13 +6500,13 @@
         <v>134212</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>464</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>466</v>
       </c>
       <c r="H19" s="7">
         <v>411</v>
@@ -6509,13 +6515,13 @@
         <v>226036</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>467</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M19" s="7">
         <v>610</v>
@@ -6524,13 +6530,13 @@
         <v>360247</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>470</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6563,10 +6569,10 @@
         <v>474</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>102</v>
+        <v>475</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M20" s="7">
         <v>2072</v>
@@ -6575,13 +6581,13 @@
         <v>1220189</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>105</v>
+        <v>478</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6649,13 +6655,13 @@
         <v>457469</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="H22" s="7">
         <v>868</v>
@@ -6664,13 +6670,13 @@
         <v>549282</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="M22" s="7">
         <v>1386</v>
@@ -6679,13 +6685,13 @@
         <v>1006751</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6700,13 +6706,13 @@
         <v>2894901</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="H23" s="7">
         <v>4419</v>
@@ -6715,13 +6721,13 @@
         <v>3095314</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="M23" s="7">
         <v>7241</v>
@@ -6730,13 +6736,13 @@
         <v>5990215</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P57_AC_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P57_AC_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEFB9CD9-D969-44A6-8AC1-0D8717D9D7AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FC06DF0-C9D0-4E9C-A2DC-6C511234F411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5516F197-AEA2-43A0-AF15-8C0326BCD199}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CD8DA361-90AA-4B62-BEA0-0C987964D18B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="504">
   <si>
     <t>Población con apoyo confidencial bajo (Duke) en 2007 (Tasa respuesta: 99,94%)</t>
   </si>
@@ -74,61 +74,61 @@
     <t>Apoyo bajo</t>
   </si>
   <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
+    <t>58,85%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>63,1%</t>
+  </si>
+  <si>
+    <t>61,06%</t>
+  </si>
+  <si>
+    <t>56,59%</t>
+  </si>
+  <si>
+    <t>65,45%</t>
+  </si>
+  <si>
+    <t>59,92%</t>
+  </si>
+  <si>
+    <t>56,86%</t>
+  </si>
+  <si>
+    <t>62,68%</t>
   </si>
   <si>
     <t>Apoyo normal</t>
   </si>
   <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,1402 +137,1420 @@
     <t>25/34</t>
   </si>
   <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>59,63%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>66,06%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>61,73%</t>
+  </si>
+  <si>
+    <t>67,1%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>38,27%</t>
   </si>
   <si>
     <t>35/44</t>
   </si>
   <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
+    <t>68,84%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>72,35%</t>
+  </si>
+  <si>
+    <t>70,04%</t>
+  </si>
+  <si>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>69,46%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
   </si>
   <si>
     <t>45/54</t>
   </si>
   <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
+    <t>70,97%</t>
+  </si>
+  <si>
+    <t>66,46%</t>
+  </si>
+  <si>
+    <t>74,81%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>65,47%</t>
+  </si>
+  <si>
+    <t>74,08%</t>
+  </si>
+  <si>
+    <t>70,41%</t>
+  </si>
+  <si>
+    <t>67,39%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>70,43%</t>
+  </si>
+  <si>
+    <t>65,68%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>76,66%</t>
+  </si>
+  <si>
+    <t>72,03%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>78,09%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>66,57%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>69,38%</t>
+  </si>
+  <si>
+    <t>68,15%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con apoyo confidencial bajo (Duke) en 2012 (Tasa respuesta: 99,31%)</t>
+  </si>
+  <si>
+    <t>57,16%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
+  </si>
+  <si>
+    <t>62,2%</t>
+  </si>
+  <si>
+    <t>57,82%</t>
+  </si>
+  <si>
+    <t>66,51%</t>
+  </si>
+  <si>
+    <t>59,62%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>62,85%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>47,49%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>62,96%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>69,61%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>66,1%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>64,88%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>71,56%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>68,71%</t>
+  </si>
+  <si>
+    <t>72,37%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>70,5%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>64,14%</t>
+  </si>
+  <si>
+    <t>59,16%</t>
+  </si>
+  <si>
+    <t>69,17%</t>
+  </si>
+  <si>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>68,83%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>68,92%</t>
+  </si>
+  <si>
+    <t>65,29%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>70,02%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>73,41%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>73,15%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>66,35%</t>
+  </si>
+  <si>
+    <t>64,64%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>74,77%</t>
+  </si>
+  <si>
+    <t>68,75%</t>
+  </si>
+  <si>
+    <t>70,93%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>Población con apoyo confidencial bajo (Duke) en 2016 (Tasa respuesta: 99,45%)</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>71,05%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>70,7%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>71,88%</t>
+  </si>
+  <si>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>73,49%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>78,35%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>74,7%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>77,38%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
   </si>
   <si>
     <t>18,71%</t>
   </si>
   <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>75,0%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>79,62%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>Población con apoyo confidencial bajo (Duke) en 2023 (Tasa respuesta: 98,67%)</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>54,63%</t>
+  </si>
+  <si>
+    <t>46,38%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>62,06%</t>
+  </si>
+  <si>
+    <t>53,06%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>60,26%</t>
+  </si>
+  <si>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>65,72%</t>
+  </si>
+  <si>
+    <t>53,6%</t>
+  </si>
+  <si>
+    <t>47,47%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>46,4%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>52,53%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>61,55%</t>
+  </si>
+  <si>
+    <t>57,35%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>61,0%</t>
+  </si>
+  <si>
+    <t>58,27%</t>
+  </si>
+  <si>
+    <t>63,79%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>57,33%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>63,15%</t>
+  </si>
+  <si>
+    <t>63,65%</t>
+  </si>
+  <si>
+    <t>60,05%</t>
+  </si>
+  <si>
+    <t>66,96%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>63,72%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>56,43%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>68,78%</t>
+  </si>
+  <si>
+    <t>64,98%</t>
+  </si>
+  <si>
+    <t>72,11%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>74,56%</t>
+  </si>
+  <si>
+    <t>70,3%</t>
+  </si>
+  <si>
+    <t>67,93%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
+  </si>
+  <si>
+    <t>66,22%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
+  </si>
+  <si>
+    <t>72,95%</t>
+  </si>
+  <si>
+    <t>70,05%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
   </si>
   <si>
     <t>31,68%</t>
   </si>
   <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>71,9%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con apoyo confidencial bajo (Duke) en 2012 (Tasa respuesta: 99,31%)</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>73,2%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>76,34%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>71,35%</t>
-  </si>
-  <si>
-    <t>67,04%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
-  </si>
-  <si>
-    <t>69,94%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>Población con apoyo confidencial bajo (Duke) en 2016 (Tasa respuesta: 99,45%)</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>77,68%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>70,11%</t>
-  </si>
-  <si>
-    <t>78,4%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>73,37%</t>
-  </si>
-  <si>
-    <t>80,08%</t>
-  </si>
-  <si>
-    <t>70,51%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>Población con apoyo confidencial bajo (Duke) en 2023 (Tasa respuesta: 98,67%)</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>81,84%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>78,63%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>78,94%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>58,09%</t>
+  </si>
+  <si>
+    <t>63,27%</t>
+  </si>
+  <si>
+    <t>61,76%</t>
+  </si>
+  <si>
+    <t>62,43%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>63,82%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>41,91%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
   </si>
 </sst>
 </file>
@@ -1944,7 +1962,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE20A8D-1234-449F-91CE-0A2E341B2330}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A889B95A-69D6-46C1-83C2-E8CEA1B6647E}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2062,10 +2080,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>35</v>
+        <v>293</v>
       </c>
       <c r="D4" s="7">
-        <v>36786</v>
+        <v>290736</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2077,10 +2095,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>44</v>
+        <v>293</v>
       </c>
       <c r="I4" s="7">
-        <v>46091</v>
+        <v>285451</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -2092,10 +2110,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>79</v>
+        <v>586</v>
       </c>
       <c r="N4" s="7">
-        <v>82878</v>
+        <v>576188</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -2113,10 +2131,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>464</v>
+        <v>206</v>
       </c>
       <c r="D5" s="7">
-        <v>457278</v>
+        <v>203328</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -2128,10 +2146,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>445</v>
+        <v>196</v>
       </c>
       <c r="I5" s="7">
-        <v>421398</v>
+        <v>182038</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -2143,10 +2161,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>909</v>
+        <v>402</v>
       </c>
       <c r="N5" s="7">
-        <v>878675</v>
+        <v>385365</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -2217,10 +2235,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>55</v>
+        <v>445</v>
       </c>
       <c r="D7" s="7">
-        <v>59432</v>
+        <v>464149</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -2232,10 +2250,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>64</v>
+        <v>386</v>
       </c>
       <c r="I7" s="7">
-        <v>73590</v>
+        <v>412451</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2247,10 +2265,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>119</v>
+        <v>831</v>
       </c>
       <c r="N7" s="7">
-        <v>133023</v>
+        <v>876600</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2268,10 +2286,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>648</v>
+        <v>258</v>
       </c>
       <c r="D8" s="7">
-        <v>676057</v>
+        <v>271340</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2283,10 +2301,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>526</v>
+        <v>204</v>
       </c>
       <c r="I8" s="7">
-        <v>550753</v>
+        <v>211892</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2298,10 +2316,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>1174</v>
+        <v>462</v>
       </c>
       <c r="N8" s="7">
-        <v>1226809</v>
+        <v>483232</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2372,10 +2390,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>90</v>
+        <v>421</v>
       </c>
       <c r="D10" s="7">
-        <v>94075</v>
+        <v>438912</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2387,10 +2405,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>86</v>
+        <v>458</v>
       </c>
       <c r="I10" s="7">
-        <v>91736</v>
+        <v>482426</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2402,10 +2420,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>176</v>
+        <v>879</v>
       </c>
       <c r="N10" s="7">
-        <v>185810</v>
+        <v>921338</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2423,10 +2441,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>522</v>
+        <v>191</v>
       </c>
       <c r="D11" s="7">
-        <v>543508</v>
+        <v>198671</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2438,10 +2456,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>571</v>
+        <v>199</v>
       </c>
       <c r="I11" s="7">
-        <v>597028</v>
+        <v>206338</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2453,10 +2471,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1093</v>
+        <v>390</v>
       </c>
       <c r="N11" s="7">
-        <v>1140537</v>
+        <v>405009</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2527,10 +2545,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>78</v>
+        <v>345</v>
       </c>
       <c r="D13" s="7">
-        <v>83217</v>
+        <v>367345</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2542,10 +2560,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>106</v>
+        <v>347</v>
       </c>
       <c r="I13" s="7">
-        <v>110131</v>
+        <v>360162</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2557,10 +2575,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>184</v>
+        <v>692</v>
       </c>
       <c r="N13" s="7">
-        <v>193348</v>
+        <v>727507</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2578,10 +2596,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>405</v>
+        <v>138</v>
       </c>
       <c r="D14" s="7">
-        <v>434380</v>
+        <v>150252</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2593,10 +2611,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>396</v>
+        <v>155</v>
       </c>
       <c r="I14" s="7">
-        <v>405511</v>
+        <v>155480</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2608,10 +2626,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>801</v>
+        <v>293</v>
       </c>
       <c r="N14" s="7">
-        <v>839891</v>
+        <v>305732</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2682,10 +2700,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>80</v>
+        <v>277</v>
       </c>
       <c r="D16" s="7">
-        <v>78428</v>
+        <v>272360</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -2697,10 +2715,10 @@
         <v>91</v>
       </c>
       <c r="H16" s="7">
-        <v>90</v>
+        <v>303</v>
       </c>
       <c r="I16" s="7">
-        <v>92823</v>
+        <v>309698</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>92</v>
@@ -2712,10 +2730,10 @@
         <v>94</v>
       </c>
       <c r="M16" s="7">
-        <v>170</v>
+        <v>580</v>
       </c>
       <c r="N16" s="7">
-        <v>171251</v>
+        <v>582058</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>95</v>
@@ -2733,10 +2751,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>312</v>
+        <v>115</v>
       </c>
       <c r="D17" s="7">
-        <v>308282</v>
+        <v>114350</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>98</v>
@@ -2748,10 +2766,10 @@
         <v>100</v>
       </c>
       <c r="H17" s="7">
-        <v>306</v>
+        <v>93</v>
       </c>
       <c r="I17" s="7">
-        <v>311163</v>
+        <v>94288</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>101</v>
@@ -2763,10 +2781,10 @@
         <v>103</v>
       </c>
       <c r="M17" s="7">
-        <v>618</v>
+        <v>208</v>
       </c>
       <c r="N17" s="7">
-        <v>619445</v>
+        <v>208638</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>104</v>
@@ -2837,10 +2855,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>134</v>
+        <v>409</v>
       </c>
       <c r="D19" s="7">
-        <v>128410</v>
+        <v>392365</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -2852,10 +2870,10 @@
         <v>110</v>
       </c>
       <c r="H19" s="7">
-        <v>203</v>
+        <v>522</v>
       </c>
       <c r="I19" s="7">
-        <v>212793</v>
+        <v>538522</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>111</v>
@@ -2867,10 +2885,10 @@
         <v>113</v>
       </c>
       <c r="M19" s="7">
-        <v>337</v>
+        <v>931</v>
       </c>
       <c r="N19" s="7">
-        <v>341203</v>
+        <v>930887</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>114</v>
@@ -2888,10 +2906,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>389</v>
+        <v>114</v>
       </c>
       <c r="D20" s="7">
-        <v>374056</v>
+        <v>110101</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>117</v>
@@ -2903,10 +2921,10 @@
         <v>119</v>
       </c>
       <c r="H20" s="7">
-        <v>458</v>
+        <v>139</v>
       </c>
       <c r="I20" s="7">
-        <v>464049</v>
+        <v>138320</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>120</v>
@@ -2918,10 +2936,10 @@
         <v>122</v>
       </c>
       <c r="M20" s="7">
-        <v>847</v>
+        <v>253</v>
       </c>
       <c r="N20" s="7">
-        <v>838105</v>
+        <v>248421</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>123</v>
@@ -2992,10 +3010,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>472</v>
+        <v>2190</v>
       </c>
       <c r="D22" s="7">
-        <v>480348</v>
+        <v>2225867</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>126</v>
@@ -3007,10 +3025,10 @@
         <v>128</v>
       </c>
       <c r="H22" s="7">
-        <v>593</v>
+        <v>2309</v>
       </c>
       <c r="I22" s="7">
-        <v>627165</v>
+        <v>2388711</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>129</v>
@@ -3022,10 +3040,10 @@
         <v>131</v>
       </c>
       <c r="M22" s="7">
-        <v>1065</v>
+        <v>4499</v>
       </c>
       <c r="N22" s="7">
-        <v>1107513</v>
+        <v>4614578</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>132</v>
@@ -3034,7 +3052,7 @@
         <v>133</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3043,49 +3061,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2740</v>
+        <v>1022</v>
       </c>
       <c r="D23" s="7">
-        <v>2793561</v>
+        <v>1048042</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="H23" s="7">
+        <v>986</v>
+      </c>
+      <c r="I23" s="7">
+        <v>988355</v>
+      </c>
+      <c r="J23" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="H23" s="7">
-        <v>2702</v>
-      </c>
-      <c r="I23" s="7">
-        <v>2749901</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="L23" s="7" t="s">
+      <c r="M23" s="7">
+        <v>2008</v>
+      </c>
+      <c r="N23" s="7">
+        <v>2036398</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="M23" s="7">
-        <v>5442</v>
-      </c>
-      <c r="N23" s="7">
-        <v>5543463</v>
-      </c>
-      <c r="O23" s="7" t="s">
+      <c r="P23" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3141,7 +3159,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -3163,7 +3181,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{883CB266-6E0F-4D24-974D-60E965F29F11}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2726A56A-11E6-41D7-A762-4544FF417401}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3180,7 +3198,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3281,49 +3299,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>52</v>
+        <v>252</v>
       </c>
       <c r="D4" s="7">
-        <v>56384</v>
+        <v>257333</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="H4" s="7">
+        <v>258</v>
+      </c>
+      <c r="I4" s="7">
+        <v>266370</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="H4" s="7">
-        <v>54</v>
-      </c>
-      <c r="I4" s="7">
-        <v>56056</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>510</v>
+      </c>
+      <c r="N4" s="7">
+        <v>523703</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="M4" s="7">
-        <v>106</v>
-      </c>
-      <c r="N4" s="7">
-        <v>112440</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3332,49 +3350,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>390</v>
+        <v>190</v>
       </c>
       <c r="D5" s="7">
-        <v>393823</v>
+        <v>192874</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>161</v>
+      </c>
+      <c r="I5" s="7">
+        <v>161897</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="H5" s="7">
-        <v>365</v>
-      </c>
-      <c r="I5" s="7">
-        <v>372211</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>351</v>
+      </c>
+      <c r="N5" s="7">
+        <v>354771</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="M5" s="7">
-        <v>755</v>
-      </c>
-      <c r="N5" s="7">
-        <v>766034</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3436,49 +3454,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>89</v>
+        <v>416</v>
       </c>
       <c r="D7" s="7">
-        <v>96407</v>
+        <v>429762</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H7" s="7">
+        <v>397</v>
+      </c>
+      <c r="I7" s="7">
+        <v>424808</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="H7" s="7">
-        <v>101</v>
-      </c>
-      <c r="I7" s="7">
-        <v>111157</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>813</v>
+      </c>
+      <c r="N7" s="7">
+        <v>854571</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="M7" s="7">
-        <v>190</v>
-      </c>
-      <c r="N7" s="7">
-        <v>207564</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3487,49 +3505,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>574</v>
+        <v>247</v>
       </c>
       <c r="D8" s="7">
-        <v>586239</v>
+        <v>252884</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H8" s="7">
+        <v>174</v>
+      </c>
+      <c r="I8" s="7">
+        <v>185447</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>421</v>
+      </c>
+      <c r="N8" s="7">
+        <v>438331</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="H8" s="7">
-        <v>470</v>
-      </c>
-      <c r="I8" s="7">
-        <v>499098</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="M8" s="7">
-        <v>1044</v>
-      </c>
-      <c r="N8" s="7">
-        <v>1085338</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3591,49 +3609,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>117</v>
+        <v>444</v>
       </c>
       <c r="D10" s="7">
-        <v>121948</v>
+        <v>465109</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H10" s="7">
+        <v>496</v>
+      </c>
+      <c r="I10" s="7">
+        <v>525895</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>940</v>
+      </c>
+      <c r="N10" s="7">
+        <v>991004</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="H10" s="7">
-        <v>131</v>
-      </c>
-      <c r="I10" s="7">
-        <v>137896</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="M10" s="7">
-        <v>248</v>
-      </c>
-      <c r="N10" s="7">
-        <v>259844</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3642,49 +3660,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>530</v>
+        <v>203</v>
       </c>
       <c r="D11" s="7">
-        <v>556088</v>
+        <v>212927</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H11" s="7">
+        <v>167</v>
+      </c>
+      <c r="I11" s="7">
+        <v>180856</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>370</v>
+      </c>
+      <c r="N11" s="7">
+        <v>393783</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="H11" s="7">
-        <v>532</v>
-      </c>
-      <c r="I11" s="7">
-        <v>568855</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="M11" s="7">
-        <v>1062</v>
-      </c>
-      <c r="N11" s="7">
-        <v>1124943</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3746,49 +3764,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>107</v>
+        <v>372</v>
       </c>
       <c r="D13" s="7">
-        <v>116946</v>
+        <v>419510</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="H13" s="7">
+        <v>421</v>
+      </c>
+      <c r="I13" s="7">
+        <v>483532</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>793</v>
+      </c>
+      <c r="N13" s="7">
+        <v>903041</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="H13" s="7">
-        <v>120</v>
-      </c>
-      <c r="I13" s="7">
-        <v>141559</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="M13" s="7">
-        <v>227</v>
-      </c>
-      <c r="N13" s="7">
-        <v>258505</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3797,49 +3815,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>437</v>
+        <v>172</v>
       </c>
       <c r="D14" s="7">
-        <v>493573</v>
+        <v>191009</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" s="7">
+        <v>117</v>
+      </c>
+      <c r="I14" s="7">
+        <v>131690</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="M14" s="7">
+        <v>289</v>
+      </c>
+      <c r="N14" s="7">
+        <v>322700</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="H14" s="7">
-        <v>418</v>
-      </c>
-      <c r="I14" s="7">
-        <v>473663</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="M14" s="7">
-        <v>855</v>
-      </c>
-      <c r="N14" s="7">
-        <v>967237</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3881,7 +3899,7 @@
         <v>1082</v>
       </c>
       <c r="N15" s="7">
-        <v>1225742</v>
+        <v>1225741</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3901,49 +3919,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>65</v>
+        <v>249</v>
       </c>
       <c r="D16" s="7">
-        <v>72942</v>
+        <v>272683</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="H16" s="7">
+        <v>297</v>
+      </c>
+      <c r="I16" s="7">
+        <v>328290</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="M16" s="7">
+        <v>546</v>
+      </c>
+      <c r="N16" s="7">
+        <v>600972</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="H16" s="7">
-        <v>97</v>
-      </c>
-      <c r="I16" s="7">
-        <v>109228</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="M16" s="7">
-        <v>162</v>
-      </c>
-      <c r="N16" s="7">
-        <v>182169</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3952,49 +3970,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>324</v>
+        <v>140</v>
       </c>
       <c r="D17" s="7">
-        <v>352225</v>
+        <v>152484</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="H17" s="7">
+        <v>108</v>
+      </c>
+      <c r="I17" s="7">
+        <v>118470</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="M17" s="7">
+        <v>248</v>
+      </c>
+      <c r="N17" s="7">
+        <v>270955</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="H17" s="7">
-        <v>308</v>
-      </c>
-      <c r="I17" s="7">
-        <v>337533</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="M17" s="7">
-        <v>632</v>
-      </c>
-      <c r="N17" s="7">
-        <v>689758</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4021,7 +4039,7 @@
         <v>405</v>
       </c>
       <c r="I18" s="7">
-        <v>446761</v>
+        <v>446760</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4056,49 +4074,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>142</v>
+        <v>365</v>
       </c>
       <c r="D19" s="7">
-        <v>158284</v>
+        <v>410980</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="H19" s="7">
+        <v>526</v>
+      </c>
+      <c r="I19" s="7">
+        <v>561482</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="M19" s="7">
+        <v>891</v>
+      </c>
+      <c r="N19" s="7">
+        <v>972462</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="H19" s="7">
-        <v>183</v>
-      </c>
-      <c r="I19" s="7">
-        <v>195196</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="M19" s="7">
-        <v>325</v>
-      </c>
-      <c r="N19" s="7">
-        <v>353479</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4107,49 +4125,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>355</v>
+        <v>132</v>
       </c>
       <c r="D20" s="7">
-        <v>394138</v>
+        <v>141442</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="H20" s="7">
+        <v>158</v>
+      </c>
+      <c r="I20" s="7">
+        <v>169494</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="M20" s="7">
+        <v>290</v>
+      </c>
+      <c r="N20" s="7">
+        <v>310936</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="H20" s="7">
-        <v>501</v>
-      </c>
-      <c r="I20" s="7">
-        <v>535780</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="M20" s="7">
-        <v>856</v>
-      </c>
-      <c r="N20" s="7">
-        <v>929919</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4211,49 +4229,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>572</v>
+        <v>2098</v>
       </c>
       <c r="D22" s="7">
-        <v>622911</v>
+        <v>2255376</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H22" s="7">
+        <v>2395</v>
+      </c>
+      <c r="I22" s="7">
+        <v>2590376</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="M22" s="7">
+        <v>4493</v>
+      </c>
+      <c r="N22" s="7">
+        <v>4845753</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="H22" s="7">
-        <v>686</v>
-      </c>
-      <c r="I22" s="7">
-        <v>751091</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="M22" s="7">
-        <v>1258</v>
-      </c>
-      <c r="N22" s="7">
-        <v>1374002</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4262,49 +4280,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2610</v>
+        <v>1084</v>
       </c>
       <c r="D23" s="7">
-        <v>2776086</v>
+        <v>1143621</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>263</v>
+        <v>134</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="H23" s="7">
-        <v>2594</v>
+        <v>885</v>
       </c>
       <c r="I23" s="7">
-        <v>2787141</v>
+        <v>947856</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="M23" s="7">
-        <v>5204</v>
+        <v>1969</v>
       </c>
       <c r="N23" s="7">
-        <v>5563227</v>
+        <v>2091477</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>267</v>
+        <v>82</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4346,7 +4364,7 @@
         <v>6462</v>
       </c>
       <c r="N24" s="7">
-        <v>6937229</v>
+        <v>6937230</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -4360,7 +4378,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -4382,7 +4400,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF709594-60D3-4A90-8603-F1BCB87AC53B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F89F238D-D322-4A45-B12A-FA4AA33573F8}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4399,7 +4417,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4500,49 +4518,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>31</v>
+        <v>294</v>
       </c>
       <c r="D4" s="7">
-        <v>34838</v>
+        <v>314281</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="H4" s="7">
+        <v>300</v>
+      </c>
+      <c r="I4" s="7">
+        <v>295280</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="M4" s="7">
+        <v>594</v>
+      </c>
+      <c r="N4" s="7">
+        <v>609560</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="H4" s="7">
-        <v>36</v>
-      </c>
-      <c r="I4" s="7">
-        <v>35603</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="M4" s="7">
-        <v>67</v>
-      </c>
-      <c r="N4" s="7">
-        <v>70441</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4551,49 +4569,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>362</v>
+        <v>99</v>
       </c>
       <c r="D5" s="7">
-        <v>384625</v>
+        <v>105182</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="H5" s="7">
+        <v>103</v>
+      </c>
+      <c r="I5" s="7">
+        <v>99513</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="M5" s="7">
+        <v>202</v>
+      </c>
+      <c r="N5" s="7">
+        <v>204696</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="H5" s="7">
-        <v>367</v>
-      </c>
-      <c r="I5" s="7">
-        <v>359190</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="M5" s="7">
-        <v>729</v>
-      </c>
-      <c r="N5" s="7">
-        <v>743815</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4655,49 +4673,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>57</v>
+        <v>430</v>
       </c>
       <c r="D7" s="7">
-        <v>60828</v>
+        <v>449260</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="H7" s="7">
+        <v>451</v>
+      </c>
+      <c r="I7" s="7">
+        <v>438919</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="M7" s="7">
+        <v>881</v>
+      </c>
+      <c r="N7" s="7">
+        <v>888178</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="H7" s="7">
-        <v>56</v>
-      </c>
-      <c r="I7" s="7">
-        <v>54612</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="M7" s="7">
-        <v>113</v>
-      </c>
-      <c r="N7" s="7">
-        <v>115440</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4706,49 +4724,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>503</v>
+        <v>130</v>
       </c>
       <c r="D8" s="7">
-        <v>520530</v>
+        <v>132098</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="H8" s="7">
+        <v>125</v>
+      </c>
+      <c r="I8" s="7">
+        <v>121250</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="M8" s="7">
+        <v>255</v>
+      </c>
+      <c r="N8" s="7">
+        <v>253349</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="H8" s="7">
-        <v>520</v>
-      </c>
-      <c r="I8" s="7">
-        <v>505557</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="M8" s="7">
-        <v>1023</v>
-      </c>
-      <c r="N8" s="7">
-        <v>1026087</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4810,49 +4828,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>89</v>
+        <v>499</v>
       </c>
       <c r="D10" s="7">
-        <v>93592</v>
+        <v>521622</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>57</v>
+        <v>299</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="H10" s="7">
+        <v>527</v>
+      </c>
+      <c r="I10" s="7">
+        <v>524163</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="M10" s="7">
+        <v>1026</v>
+      </c>
+      <c r="N10" s="7">
+        <v>1045783</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="H10" s="7">
-        <v>89</v>
-      </c>
-      <c r="I10" s="7">
-        <v>89851</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="M10" s="7">
-        <v>178</v>
-      </c>
-      <c r="N10" s="7">
-        <v>183443</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4861,49 +4879,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>548</v>
+        <v>138</v>
       </c>
       <c r="D11" s="7">
-        <v>574640</v>
+        <v>146610</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>66</v>
+        <v>308</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="H11" s="7">
+        <v>134</v>
+      </c>
+      <c r="I11" s="7">
+        <v>133386</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="M11" s="7">
+        <v>272</v>
+      </c>
+      <c r="N11" s="7">
+        <v>279997</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="H11" s="7">
-        <v>572</v>
-      </c>
-      <c r="I11" s="7">
-        <v>567698</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="M11" s="7">
-        <v>1120</v>
-      </c>
-      <c r="N11" s="7">
-        <v>1142337</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4965,49 +4983,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>133</v>
+        <v>466</v>
       </c>
       <c r="D13" s="7">
-        <v>147665</v>
+        <v>519977</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>203</v>
+        <v>116</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="H13" s="7">
+        <v>498</v>
+      </c>
+      <c r="I13" s="7">
+        <v>538801</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>964</v>
+      </c>
+      <c r="N13" s="7">
+        <v>1058778</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="H13" s="7">
-        <v>115</v>
-      </c>
-      <c r="I13" s="7">
-        <v>122718</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="M13" s="7">
-        <v>248</v>
-      </c>
-      <c r="N13" s="7">
-        <v>270383</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5016,49 +5034,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>445</v>
+        <v>112</v>
       </c>
       <c r="D14" s="7">
-        <v>494046</v>
+        <v>121734</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>212</v>
+        <v>124</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="H14" s="7">
+        <v>99</v>
+      </c>
+      <c r="I14" s="7">
+        <v>104497</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="M14" s="7">
+        <v>211</v>
+      </c>
+      <c r="N14" s="7">
+        <v>226231</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="H14" s="7">
-        <v>482</v>
-      </c>
-      <c r="I14" s="7">
-        <v>520580</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="M14" s="7">
-        <v>927</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1014626</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>333</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>334</v>
+        <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5120,49 +5138,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>93</v>
+        <v>343</v>
       </c>
       <c r="D16" s="7">
-        <v>104924</v>
+        <v>387572</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="H16" s="7">
+        <v>360</v>
+      </c>
+      <c r="I16" s="7">
+        <v>413055</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="M16" s="7">
+        <v>703</v>
+      </c>
+      <c r="N16" s="7">
+        <v>800627</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="H16" s="7">
-        <v>112</v>
-      </c>
-      <c r="I16" s="7">
-        <v>127886</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="M16" s="7">
-        <v>205</v>
-      </c>
-      <c r="N16" s="7">
-        <v>232810</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5171,49 +5189,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>330</v>
+        <v>80</v>
       </c>
       <c r="D17" s="7">
-        <v>371856</v>
+        <v>89208</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="H17" s="7">
+        <v>69</v>
+      </c>
+      <c r="I17" s="7">
+        <v>79242</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>149</v>
+      </c>
+      <c r="N17" s="7">
+        <v>168450</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="H17" s="7">
-        <v>317</v>
-      </c>
-      <c r="I17" s="7">
-        <v>364411</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="M17" s="7">
-        <v>647</v>
-      </c>
-      <c r="N17" s="7">
-        <v>736267</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5275,49 +5293,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>145</v>
+        <v>509</v>
       </c>
       <c r="D19" s="7">
-        <v>136471</v>
+        <v>476959</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="H19" s="7">
+        <v>572</v>
+      </c>
+      <c r="I19" s="7">
+        <v>680989</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>1081</v>
+      </c>
+      <c r="N19" s="7">
+        <v>1157948</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="H19" s="7">
-        <v>190</v>
-      </c>
-      <c r="I19" s="7">
-        <v>228119</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="M19" s="7">
-        <v>335</v>
-      </c>
-      <c r="N19" s="7">
-        <v>364590</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5326,49 +5344,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>480</v>
+        <v>116</v>
       </c>
       <c r="D20" s="7">
-        <v>452933</v>
+        <v>112445</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="H20" s="7">
+        <v>79</v>
+      </c>
+      <c r="I20" s="7">
+        <v>92586</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="H20" s="7">
-        <v>461</v>
-      </c>
-      <c r="I20" s="7">
-        <v>545456</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>195</v>
+      </c>
+      <c r="N20" s="7">
+        <v>205031</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="M20" s="7">
-        <v>941</v>
-      </c>
-      <c r="N20" s="7">
-        <v>998389</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5430,49 +5448,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>548</v>
+        <v>2541</v>
       </c>
       <c r="D22" s="7">
-        <v>578318</v>
+        <v>2669669</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>2708</v>
+      </c>
+      <c r="I22" s="7">
+        <v>2891205</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="H22" s="7">
-        <v>598</v>
-      </c>
-      <c r="I22" s="7">
-        <v>658789</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>5249</v>
+      </c>
+      <c r="N22" s="7">
+        <v>5560875</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="M22" s="7">
-        <v>1146</v>
-      </c>
-      <c r="N22" s="7">
-        <v>1237107</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="P22" s="7" t="s">
-        <v>255</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>260</v>
+        <v>373</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5481,49 +5499,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2668</v>
+        <v>675</v>
       </c>
       <c r="D23" s="7">
-        <v>2798630</v>
+        <v>707279</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H23" s="7">
-        <v>2719</v>
+        <v>609</v>
       </c>
       <c r="I23" s="7">
-        <v>2862891</v>
+        <v>630475</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>85</v>
+        <v>377</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="M23" s="7">
-        <v>5387</v>
+        <v>1284</v>
       </c>
       <c r="N23" s="7">
-        <v>5661522</v>
+        <v>1337754</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>269</v>
+        <v>381</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>264</v>
+        <v>382</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5579,7 +5597,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -5601,7 +5619,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73693151-7E81-47AA-A62F-7D17E52CF46C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3243E483-6D61-42D9-B5A2-92CD2FE79F45}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5618,7 +5636,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5719,49 +5737,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="D4" s="7">
-        <v>14529</v>
+        <v>171195</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="H4" s="7">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="I4" s="7">
-        <v>28970</v>
+        <v>162589</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>296</v>
+        <v>387</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="M4" s="7">
-        <v>23</v>
+        <v>174</v>
       </c>
       <c r="N4" s="7">
-        <v>43499</v>
+        <v>333783</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5770,49 +5788,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>163</v>
+        <v>93</v>
       </c>
       <c r="D5" s="7">
-        <v>358745</v>
+        <v>202079</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="H5" s="7">
-        <v>186</v>
+        <v>105</v>
       </c>
       <c r="I5" s="7">
-        <v>317382</v>
+        <v>183763</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>306</v>
+        <v>396</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="M5" s="7">
-        <v>349</v>
+        <v>198</v>
       </c>
       <c r="N5" s="7">
-        <v>676127</v>
+        <v>385843</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5874,49 +5892,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>32</v>
+        <v>187</v>
       </c>
       <c r="D7" s="7">
-        <v>38047</v>
+        <v>255875</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>396</v>
+        <v>17</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="H7" s="7">
-        <v>37</v>
+        <v>263</v>
       </c>
       <c r="I7" s="7">
-        <v>36220</v>
+        <v>265522</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="M7" s="7">
-        <v>69</v>
+        <v>450</v>
       </c>
       <c r="N7" s="7">
-        <v>74267</v>
+        <v>521397</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5925,49 +5943,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>269</v>
+        <v>114</v>
       </c>
       <c r="D8" s="7">
-        <v>388969</v>
+        <v>171141</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>405</v>
+        <v>27</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="H8" s="7">
-        <v>419</v>
+        <v>193</v>
       </c>
       <c r="I8" s="7">
-        <v>459141</v>
+        <v>229839</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="M8" s="7">
-        <v>688</v>
+        <v>307</v>
       </c>
       <c r="N8" s="7">
-        <v>848110</v>
+        <v>400980</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6029,49 +6047,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>70</v>
+        <v>345</v>
       </c>
       <c r="D10" s="7">
-        <v>68811</v>
+        <v>340445</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>14</v>
+        <v>419</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="H10" s="7">
-        <v>72</v>
+        <v>529</v>
       </c>
       <c r="I10" s="7">
-        <v>48077</v>
+        <v>351745</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="M10" s="7">
-        <v>142</v>
+        <v>874</v>
       </c>
       <c r="N10" s="7">
-        <v>116889</v>
+        <v>692190</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6080,49 +6098,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>471</v>
+        <v>196</v>
       </c>
       <c r="D11" s="7">
-        <v>484306</v>
+        <v>212672</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>24</v>
+        <v>429</v>
       </c>
       <c r="H11" s="7">
-        <v>771</v>
+        <v>314</v>
       </c>
       <c r="I11" s="7">
-        <v>533595</v>
+        <v>229927</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="M11" s="7">
-        <v>1242</v>
+        <v>510</v>
       </c>
       <c r="N11" s="7">
-        <v>1017901</v>
+        <v>442600</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6184,49 +6202,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>90</v>
+        <v>411</v>
       </c>
       <c r="D13" s="7">
-        <v>92619</v>
+        <v>410373</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="H13" s="7">
-        <v>140</v>
+        <v>727</v>
       </c>
       <c r="I13" s="7">
-        <v>88842</v>
+        <v>469368</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>295</v>
+        <v>440</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="M13" s="7">
-        <v>230</v>
+        <v>1138</v>
       </c>
       <c r="N13" s="7">
-        <v>181460</v>
+        <v>879741</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6235,49 +6253,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>567</v>
+        <v>246</v>
       </c>
       <c r="D14" s="7">
-        <v>623165</v>
+        <v>305411</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="H14" s="7">
-        <v>987</v>
+        <v>400</v>
       </c>
       <c r="I14" s="7">
-        <v>648541</v>
+        <v>268015</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>304</v>
+        <v>450</v>
       </c>
       <c r="M14" s="7">
-        <v>1554</v>
+        <v>646</v>
       </c>
       <c r="N14" s="7">
-        <v>1271707</v>
+        <v>573426</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6339,49 +6357,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>120</v>
+        <v>457</v>
       </c>
       <c r="D16" s="7">
-        <v>109251</v>
+        <v>410909</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>336</v>
+        <v>454</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="H16" s="7">
-        <v>192</v>
+        <v>711</v>
       </c>
       <c r="I16" s="7">
-        <v>121137</v>
+        <v>423216</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="M16" s="7">
-        <v>312</v>
+        <v>1168</v>
       </c>
       <c r="N16" s="7">
-        <v>230389</v>
+        <v>834125</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6390,49 +6408,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>540</v>
+        <v>203</v>
       </c>
       <c r="D17" s="7">
-        <v>488182</v>
+        <v>186524</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>345</v>
+        <v>463</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="H17" s="7">
-        <v>796</v>
+        <v>277</v>
       </c>
       <c r="I17" s="7">
-        <v>467999</v>
+        <v>165920</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="M17" s="7">
-        <v>1336</v>
+        <v>480</v>
       </c>
       <c r="N17" s="7">
-        <v>956180</v>
+        <v>352444</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6494,49 +6512,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>199</v>
+        <v>701</v>
       </c>
       <c r="D19" s="7">
-        <v>134212</v>
+        <v>473670</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="H19" s="7">
-        <v>411</v>
+        <v>1171</v>
       </c>
       <c r="I19" s="7">
-        <v>226036</v>
+        <v>633449</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="M19" s="7">
-        <v>610</v>
+        <v>1872</v>
       </c>
       <c r="N19" s="7">
-        <v>360247</v>
+        <v>1107119</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6545,49 +6563,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>812</v>
+        <v>310</v>
       </c>
       <c r="D20" s="7">
-        <v>551533</v>
+        <v>212075</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="H20" s="7">
-        <v>1260</v>
+        <v>500</v>
       </c>
       <c r="I20" s="7">
-        <v>668655</v>
+        <v>261242</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="M20" s="7">
-        <v>2072</v>
+        <v>810</v>
       </c>
       <c r="N20" s="7">
-        <v>1220189</v>
+        <v>473317</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6649,49 +6667,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>518</v>
+        <v>2178</v>
       </c>
       <c r="D22" s="7">
-        <v>457469</v>
+        <v>2062467</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>482</v>
+        <v>439</v>
       </c>
       <c r="H22" s="7">
-        <v>868</v>
+        <v>3498</v>
       </c>
       <c r="I22" s="7">
-        <v>549282</v>
+        <v>2305889</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>485</v>
+        <v>179</v>
       </c>
       <c r="M22" s="7">
-        <v>1386</v>
+        <v>5676</v>
       </c>
       <c r="N22" s="7">
-        <v>1006751</v>
+        <v>4368356</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6700,49 +6718,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2822</v>
+        <v>1162</v>
       </c>
       <c r="D23" s="7">
-        <v>2894901</v>
+        <v>1289903</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>490</v>
+        <v>448</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="H23" s="7">
-        <v>4419</v>
+        <v>1789</v>
       </c>
       <c r="I23" s="7">
-        <v>3095314</v>
+        <v>1338707</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>493</v>
+        <v>189</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="M23" s="7">
-        <v>7241</v>
+        <v>2951</v>
       </c>
       <c r="N23" s="7">
-        <v>5990215</v>
+        <v>2628610</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6798,7 +6816,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P57_AC_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P57_AC_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FC06DF0-C9D0-4E9C-A2DC-6C511234F411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EBB91E6-7227-4890-AFCF-3CD40D2FC371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CD8DA361-90AA-4B62-BEA0-0C987964D18B}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{4B39D03E-9CDE-490B-A5DF-2D45DEB5737A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="575">
   <si>
     <t>Población con apoyo confidencial bajo (Duke) en 2007 (Tasa respuesta: 99,94%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Apoyo bajo</t>
@@ -134,7 +134,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>63,11%</t>
@@ -191,7 +191,7 @@
     <t>38,27%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>68,84%</t>
@@ -248,7 +248,7 @@
     <t>33,14%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>70,97%</t>
@@ -305,7 +305,7 @@
     <t>32,61%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>70,43%</t>
@@ -362,1195 +362,1408 @@
     <t>29,52%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>78,09%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>77,64%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>77,46%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>80,42%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>73,18%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>66,57%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>69,38%</t>
+  </si>
+  <si>
+    <t>68,15%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con apoyo confidencial bajo (Duke) en 2012 (Tasa respuesta: 99,31%)</t>
+  </si>
+  <si>
+    <t>57,16%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
+  </si>
+  <si>
+    <t>62,2%</t>
+  </si>
+  <si>
+    <t>57,82%</t>
+  </si>
+  <si>
+    <t>66,51%</t>
+  </si>
+  <si>
+    <t>59,62%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>62,85%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>47,49%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>62,96%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>69,61%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>66,1%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>64,88%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>71,56%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>68,71%</t>
+  </si>
+  <si>
+    <t>72,37%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>70,5%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>64,14%</t>
+  </si>
+  <si>
+    <t>59,16%</t>
+  </si>
+  <si>
+    <t>69,17%</t>
+  </si>
+  <si>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>68,83%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>68,92%</t>
+  </si>
+  <si>
+    <t>65,29%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>78,68%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>75,16%</t>
+  </si>
+  <si>
+    <t>71,63%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>75,42%</t>
+  </si>
+  <si>
+    <t>69,51%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>76,41%</t>
+  </si>
+  <si>
+    <t>72,73%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>66,35%</t>
+  </si>
+  <si>
+    <t>64,64%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>74,77%</t>
+  </si>
+  <si>
+    <t>68,75%</t>
+  </si>
+  <si>
+    <t>70,93%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>Población con apoyo confidencial bajo (Duke) en 2016 (Tasa respuesta: 99,45%)</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>71,05%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>70,7%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>71,88%</t>
+  </si>
+  <si>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>73,49%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>78,35%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>74,7%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>77,38%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>78,28%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>79,62%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>Población con apoyo confidencial bajo (Duke) en 2023 (Tasa respuesta: 98,67%)</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>52,08%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>56,58%</t>
+  </si>
+  <si>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>64,74%</t>
+  </si>
+  <si>
+    <t>55,41%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>62,93%</t>
+  </si>
+  <si>
+    <t>56,07%</t>
+  </si>
+  <si>
+    <t>50,14%</t>
+  </si>
+  <si>
+    <t>61,91%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>52,2%</t>
+  </si>
+  <si>
+    <t>64,91%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>56,5%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>58,04%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>52,99%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>41,96%</t>
+  </si>
+  <si>
+    <t>60,02%</t>
+  </si>
+  <si>
+    <t>60,61%</t>
+  </si>
+  <si>
+    <t>65,04%</t>
+  </si>
+  <si>
+    <t>59,91%</t>
+  </si>
+  <si>
+    <t>56,47%</t>
+  </si>
+  <si>
+    <t>63,37%</t>
+  </si>
+  <si>
+    <t>60,26%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>51,43%</t>
+  </si>
+  <si>
+    <t>65,21%</t>
+  </si>
+  <si>
+    <t>51,61%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
+  </si>
+  <si>
+    <t>55,81%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>48,39%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>64,13%</t>
+  </si>
+  <si>
+    <t>71,34%</t>
+  </si>
+  <si>
+    <t>71,35%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
   </si>
   <si>
     <t>74,09%</t>
   </si>
   <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>78,94%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
+    <t>69,62%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
   </si>
   <si>
     <t>25,91%</t>
   </si>
   <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>66,57%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>72,21%</t>
-  </si>
-  <si>
-    <t>69,38%</t>
-  </si>
-  <si>
-    <t>68,15%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con apoyo confidencial bajo (Duke) en 2012 (Tasa respuesta: 99,31%)</t>
-  </si>
-  <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>62,2%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>66,51%</t>
-  </si>
-  <si>
-    <t>59,62%</t>
-  </si>
-  <si>
-    <t>56,41%</t>
-  </si>
-  <si>
-    <t>62,85%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>47,49%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>62,96%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>66,1%</t>
-  </si>
-  <si>
-    <t>63,49%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>64,88%</t>
-  </si>
-  <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>71,56%</t>
-  </si>
-  <si>
-    <t>69,3%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>68,71%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>70,5%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>64,14%</t>
-  </si>
-  <si>
-    <t>59,16%</t>
-  </si>
-  <si>
-    <t>69,17%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>68,83%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
-  </si>
-  <si>
-    <t>68,92%</t>
-  </si>
-  <si>
-    <t>65,29%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>70,02%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>73,41%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>75,77%</t>
-  </si>
-  <si>
-    <t>73,15%</t>
-  </si>
-  <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>66,35%</t>
-  </si>
-  <si>
-    <t>64,64%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>74,77%</t>
-  </si>
-  <si>
-    <t>68,75%</t>
-  </si>
-  <si>
-    <t>70,93%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>Población con apoyo confidencial bajo (Duke) en 2016 (Tasa respuesta: 99,45%)</t>
-  </si>
-  <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>71,05%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>74,86%</t>
-  </si>
-  <si>
-    <t>71,88%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>73,49%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>77,81%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>74,7%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>77,38%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>79,62%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>Población con apoyo confidencial bajo (Duke) en 2023 (Tasa respuesta: 98,67%)</t>
-  </si>
-  <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>46,94%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>54,63%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
-  </si>
-  <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>62,06%</t>
-  </si>
-  <si>
-    <t>53,06%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>60,26%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>65,72%</t>
-  </si>
-  <si>
-    <t>53,6%</t>
-  </si>
-  <si>
-    <t>47,47%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>46,53%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>52,53%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>61,55%</t>
-  </si>
-  <si>
-    <t>57,35%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>60,47%</t>
-  </si>
-  <si>
-    <t>56,9%</t>
-  </si>
-  <si>
-    <t>63,92%</t>
-  </si>
-  <si>
-    <t>61,0%</t>
-  </si>
-  <si>
-    <t>58,27%</t>
-  </si>
-  <si>
-    <t>63,79%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>57,33%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>63,15%</t>
-  </si>
-  <si>
-    <t>63,65%</t>
-  </si>
-  <si>
-    <t>60,05%</t>
-  </si>
-  <si>
-    <t>66,96%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>63,72%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>56,43%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>68,78%</t>
-  </si>
-  <si>
-    <t>64,98%</t>
-  </si>
-  <si>
-    <t>72,11%</t>
-  </si>
-  <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>74,56%</t>
-  </si>
-  <si>
-    <t>70,3%</t>
-  </si>
-  <si>
-    <t>67,93%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>69,07%</t>
-  </si>
-  <si>
-    <t>66,22%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>68,65%</t>
-  </si>
-  <si>
-    <t>72,95%</t>
-  </si>
-  <si>
-    <t>70,05%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>58,09%</t>
-  </si>
-  <si>
-    <t>63,27%</t>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>66,26%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>65,59%</t>
+  </si>
+  <si>
+    <t>62,43%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>63,34%</t>
+  </si>
+  <si>
+    <t>68,44%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>66,17%</t>
+  </si>
+  <si>
+    <t>74,5%</t>
+  </si>
+  <si>
+    <t>71,23%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>75,73%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>56,84%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>61,78%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>63,26%</t>
+  </si>
+  <si>
+    <t>51,83%</t>
   </si>
   <si>
     <t>61,76%</t>
   </si>
   <si>
-    <t>62,43%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>63,82%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>41,91%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>57,6%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
   </si>
   <si>
     <t>38,24%</t>
   </si>
   <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
+    <t>48,17%</t>
   </si>
 </sst>
 </file>
@@ -1962,8 +2175,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A889B95A-69D6-46C1-83C2-E8CEA1B6647E}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E2610C2-4CA2-4357-BB4F-C998E2A2A1BF}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2855,10 +3068,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>409</v>
+        <v>234</v>
       </c>
       <c r="D19" s="7">
-        <v>392365</v>
+        <v>225996</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -2870,10 +3083,10 @@
         <v>110</v>
       </c>
       <c r="H19" s="7">
-        <v>522</v>
+        <v>286</v>
       </c>
       <c r="I19" s="7">
-        <v>538522</v>
+        <v>266254</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>111</v>
@@ -2885,10 +3098,10 @@
         <v>113</v>
       </c>
       <c r="M19" s="7">
-        <v>931</v>
+        <v>520</v>
       </c>
       <c r="N19" s="7">
-        <v>930887</v>
+        <v>492250</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>114</v>
@@ -2906,10 +3119,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="D20" s="7">
-        <v>110101</v>
+        <v>66587</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>117</v>
@@ -2921,10 +3134,10 @@
         <v>119</v>
       </c>
       <c r="H20" s="7">
-        <v>139</v>
+        <v>85</v>
       </c>
       <c r="I20" s="7">
-        <v>138320</v>
+        <v>76680</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>120</v>
@@ -2936,10 +3149,10 @@
         <v>122</v>
       </c>
       <c r="M20" s="7">
-        <v>253</v>
+        <v>154</v>
       </c>
       <c r="N20" s="7">
-        <v>248421</v>
+        <v>143267</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>123</v>
@@ -2957,10 +3170,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D21" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2972,10 +3185,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I21" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2987,10 +3200,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N21" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3004,55 +3217,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>2190</v>
+        <v>175</v>
       </c>
       <c r="D22" s="7">
-        <v>2225867</v>
+        <v>166369</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
-        <v>2309</v>
+        <v>236</v>
       </c>
       <c r="I22" s="7">
-        <v>2388711</v>
+        <v>272268</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
-        <v>4499</v>
+        <v>411</v>
       </c>
       <c r="N22" s="7">
-        <v>4614578</v>
+        <v>438637</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>89</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3061,49 +3274,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1022</v>
+        <v>45</v>
       </c>
       <c r="D23" s="7">
-        <v>1048042</v>
+        <v>43514</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
-        <v>986</v>
+        <v>54</v>
       </c>
       <c r="I23" s="7">
-        <v>988355</v>
+        <v>61640</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
-        <v>2008</v>
+        <v>99</v>
       </c>
       <c r="N23" s="7">
-        <v>2036398</v>
+        <v>105154</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>98</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3112,63 +3325,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>220</v>
+      </c>
+      <c r="D24" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>290</v>
+      </c>
+      <c r="I24" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>510</v>
+      </c>
+      <c r="N24" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>2190</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2225867</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H25" s="7">
+        <v>2309</v>
+      </c>
+      <c r="I25" s="7">
+        <v>2388711</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="M25" s="7">
+        <v>4499</v>
+      </c>
+      <c r="N25" s="7">
+        <v>4614577</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1022</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1048042</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H26" s="7">
+        <v>986</v>
+      </c>
+      <c r="I26" s="7">
+        <v>988355</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="M26" s="7">
+        <v>2008</v>
+      </c>
+      <c r="N26" s="7">
+        <v>2036398</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3212</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3273909</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3295</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3377066</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6507</v>
       </c>
-      <c r="N24" s="7">
-        <v>6650976</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="N27" s="7">
+        <v>6650975</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3181,8 +3550,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2726A56A-11E6-41D7-A762-4544FF417401}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C5BFFFA-0301-4590-9793-E8922DEA1193}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3198,7 +3567,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3305,13 +3674,13 @@
         <v>257333</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="H4" s="7">
         <v>258</v>
@@ -3320,13 +3689,13 @@
         <v>266370</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="M4" s="7">
         <v>510</v>
@@ -3335,13 +3704,13 @@
         <v>523703</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3356,13 +3725,13 @@
         <v>192874</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="H5" s="7">
         <v>161</v>
@@ -3371,28 +3740,28 @@
         <v>161897</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="M5" s="7">
         <v>351</v>
       </c>
       <c r="N5" s="7">
-        <v>354771</v>
+        <v>354770</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3434,7 +3803,7 @@
         <v>861</v>
       </c>
       <c r="N6" s="7">
-        <v>878474</v>
+        <v>878473</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3460,13 +3829,13 @@
         <v>429762</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="H7" s="7">
         <v>397</v>
@@ -3475,13 +3844,13 @@
         <v>424808</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="M7" s="7">
         <v>813</v>
@@ -3490,13 +3859,13 @@
         <v>854571</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3511,13 +3880,13 @@
         <v>252884</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="H8" s="7">
         <v>174</v>
@@ -3526,13 +3895,13 @@
         <v>185447</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="M8" s="7">
         <v>421</v>
@@ -3541,13 +3910,13 @@
         <v>438331</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3615,13 +3984,13 @@
         <v>465109</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="H10" s="7">
         <v>496</v>
@@ -3630,13 +3999,13 @@
         <v>525895</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="M10" s="7">
         <v>940</v>
@@ -3645,13 +4014,13 @@
         <v>991004</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3666,13 +4035,13 @@
         <v>212927</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="H11" s="7">
         <v>167</v>
@@ -3681,13 +4050,13 @@
         <v>180856</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="M11" s="7">
         <v>370</v>
@@ -3696,13 +4065,13 @@
         <v>393783</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3770,13 +4139,13 @@
         <v>419510</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>52</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="H13" s="7">
         <v>421</v>
@@ -3785,13 +4154,13 @@
         <v>483532</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="M13" s="7">
         <v>793</v>
@@ -3800,13 +4169,13 @@
         <v>903041</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3821,10 +4190,10 @@
         <v>191009</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>62</v>
@@ -3836,13 +4205,13 @@
         <v>131690</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="M14" s="7">
         <v>289</v>
@@ -3851,13 +4220,13 @@
         <v>322700</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3925,13 +4294,13 @@
         <v>272683</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="H16" s="7">
         <v>297</v>
@@ -3940,13 +4309,13 @@
         <v>328290</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="M16" s="7">
         <v>546</v>
@@ -3955,13 +4324,13 @@
         <v>600972</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3976,28 +4345,28 @@
         <v>152484</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="H17" s="7">
         <v>108</v>
       </c>
       <c r="I17" s="7">
-        <v>118470</v>
+        <v>118471</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="M17" s="7">
         <v>248</v>
@@ -4006,13 +4375,13 @@
         <v>270955</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4039,7 +4408,7 @@
         <v>405</v>
       </c>
       <c r="I18" s="7">
-        <v>446760</v>
+        <v>446761</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4074,49 +4443,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>365</v>
+        <v>201</v>
       </c>
       <c r="D19" s="7">
-        <v>410980</v>
+        <v>225738</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="H19" s="7">
-        <v>526</v>
+        <v>260</v>
       </c>
       <c r="I19" s="7">
-        <v>561482</v>
+        <v>266726</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="M19" s="7">
-        <v>891</v>
+        <v>461</v>
       </c>
       <c r="N19" s="7">
-        <v>972462</v>
+        <v>492463</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4125,49 +4494,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="D20" s="7">
-        <v>141442</v>
+        <v>81062</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="H20" s="7">
+        <v>80</v>
+      </c>
+      <c r="I20" s="7">
+        <v>81720</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="M20" s="7">
         <v>158</v>
       </c>
-      <c r="I20" s="7">
-        <v>169494</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="M20" s="7">
-        <v>290</v>
-      </c>
       <c r="N20" s="7">
-        <v>310936</v>
+        <v>162782</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4176,10 +4545,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>497</v>
+        <v>279</v>
       </c>
       <c r="D21" s="7">
-        <v>552422</v>
+        <v>306800</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -4191,10 +4560,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>684</v>
+        <v>340</v>
       </c>
       <c r="I21" s="7">
-        <v>730976</v>
+        <v>348446</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -4206,10 +4575,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1181</v>
+        <v>619</v>
       </c>
       <c r="N21" s="7">
-        <v>1283398</v>
+        <v>655245</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4223,55 +4592,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>2098</v>
+        <v>164</v>
       </c>
       <c r="D22" s="7">
-        <v>2255376</v>
+        <v>185242</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>126</v>
+        <v>269</v>
       </c>
       <c r="H22" s="7">
-        <v>2395</v>
+        <v>266</v>
       </c>
       <c r="I22" s="7">
-        <v>2590376</v>
+        <v>294757</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="M22" s="7">
-        <v>4493</v>
+        <v>430</v>
       </c>
       <c r="N22" s="7">
-        <v>4845753</v>
+        <v>479999</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>73</v>
+        <v>273</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4280,49 +4649,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1084</v>
+        <v>54</v>
       </c>
       <c r="D23" s="7">
-        <v>1143621</v>
+        <v>60380</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>134</v>
+        <v>277</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="H23" s="7">
-        <v>885</v>
+        <v>78</v>
       </c>
       <c r="I23" s="7">
-        <v>947856</v>
+        <v>87774</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>257</v>
+        <v>279</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="M23" s="7">
-        <v>1969</v>
+        <v>132</v>
       </c>
       <c r="N23" s="7">
-        <v>2091477</v>
+        <v>148154</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>82</v>
+        <v>282</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>260</v>
+        <v>283</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>261</v>
+        <v>284</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4331,63 +4700,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>218</v>
+      </c>
+      <c r="D24" s="7">
+        <v>245622</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>344</v>
+      </c>
+      <c r="I24" s="7">
+        <v>382531</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>562</v>
+      </c>
+      <c r="N24" s="7">
+        <v>628153</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>2098</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2255376</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H25" s="7">
+        <v>2395</v>
+      </c>
+      <c r="I25" s="7">
+        <v>2590376</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="M25" s="7">
+        <v>4493</v>
+      </c>
+      <c r="N25" s="7">
+        <v>4845753</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1084</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1143621</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="H26" s="7">
+        <v>885</v>
+      </c>
+      <c r="I26" s="7">
+        <v>947856</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="M26" s="7">
+        <v>1969</v>
+      </c>
+      <c r="N26" s="7">
+        <v>2091476</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3182</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3398997</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3280</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3538232</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6462</v>
       </c>
-      <c r="N24" s="7">
-        <v>6937230</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="N27" s="7">
+        <v>6937229</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4400,8 +4925,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F89F238D-D322-4A45-B12A-FA4AA33573F8}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DB6CC00-134D-4072-BF2A-E45F5440729E}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4417,7 +4942,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>262</v>
+        <v>299</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4524,13 +5049,13 @@
         <v>314281</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>264</v>
+        <v>301</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>265</v>
+        <v>302</v>
       </c>
       <c r="H4" s="7">
         <v>300</v>
@@ -4539,13 +5064,13 @@
         <v>295280</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>266</v>
+        <v>303</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>267</v>
+        <v>304</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
       <c r="M4" s="7">
         <v>594</v>
@@ -4554,13 +5079,13 @@
         <v>609560</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>269</v>
+        <v>306</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>270</v>
+        <v>307</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>271</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4575,13 +5100,13 @@
         <v>105182</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>272</v>
+        <v>309</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>273</v>
+        <v>310</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>274</v>
+        <v>311</v>
       </c>
       <c r="H5" s="7">
         <v>103</v>
@@ -4590,13 +5115,13 @@
         <v>99513</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>275</v>
+        <v>312</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c r="M5" s="7">
         <v>202</v>
@@ -4605,13 +5130,13 @@
         <v>204696</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>278</v>
+        <v>315</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>280</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4679,13 +5204,13 @@
         <v>449260</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>281</v>
+        <v>318</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>283</v>
+        <v>320</v>
       </c>
       <c r="H7" s="7">
         <v>451</v>
@@ -4694,13 +5219,13 @@
         <v>438919</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>284</v>
+        <v>321</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>285</v>
+        <v>322</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>286</v>
+        <v>323</v>
       </c>
       <c r="M7" s="7">
         <v>881</v>
@@ -4709,13 +5234,13 @@
         <v>888178</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>287</v>
+        <v>324</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>288</v>
+        <v>325</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>289</v>
+        <v>326</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4730,13 +5255,13 @@
         <v>132098</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>291</v>
+        <v>328</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>292</v>
+        <v>329</v>
       </c>
       <c r="H8" s="7">
         <v>125</v>
@@ -4745,13 +5270,13 @@
         <v>121250</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>293</v>
+        <v>330</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>294</v>
+        <v>331</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
       <c r="M8" s="7">
         <v>255</v>
@@ -4760,13 +5285,13 @@
         <v>253349</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>296</v>
+        <v>333</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>297</v>
+        <v>334</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4831,16 +5356,16 @@
         <v>499</v>
       </c>
       <c r="D10" s="7">
-        <v>521622</v>
+        <v>521621</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="H10" s="7">
         <v>527</v>
@@ -4849,13 +5374,13 @@
         <v>524163</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>304</v>
+        <v>341</v>
       </c>
       <c r="M10" s="7">
         <v>1026</v>
@@ -4864,13 +5389,13 @@
         <v>1045783</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>305</v>
+        <v>342</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>306</v>
+        <v>343</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4885,13 +5410,13 @@
         <v>146610</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="H11" s="7">
         <v>134</v>
@@ -4900,13 +5425,13 @@
         <v>133386</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>312</v>
+        <v>349</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
       <c r="M11" s="7">
         <v>272</v>
@@ -4915,13 +5440,13 @@
         <v>279997</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>314</v>
+        <v>351</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>315</v>
+        <v>352</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>316</v>
+        <v>353</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4933,7 +5458,7 @@
         <v>637</v>
       </c>
       <c r="D12" s="7">
-        <v>668232</v>
+        <v>668231</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4989,13 +5514,13 @@
         <v>519977</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>116</v>
+        <v>354</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>317</v>
+        <v>355</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>318</v>
+        <v>356</v>
       </c>
       <c r="H13" s="7">
         <v>498</v>
@@ -5004,13 +5529,13 @@
         <v>538801</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>319</v>
+        <v>357</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>320</v>
+        <v>358</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="M13" s="7">
         <v>964</v>
@@ -5019,13 +5544,13 @@
         <v>1058778</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>113</v>
+        <v>360</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>289</v>
+        <v>326</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>322</v>
+        <v>361</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5040,13 +5565,13 @@
         <v>121734</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>124</v>
+        <v>362</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>323</v>
+        <v>363</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>324</v>
+        <v>364</v>
       </c>
       <c r="H14" s="7">
         <v>99</v>
@@ -5055,13 +5580,13 @@
         <v>104497</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>325</v>
+        <v>365</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>326</v>
+        <v>366</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>327</v>
+        <v>367</v>
       </c>
       <c r="M14" s="7">
         <v>211</v>
@@ -5070,13 +5595,13 @@
         <v>226231</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>121</v>
+        <v>368</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>328</v>
+        <v>369</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>297</v>
+        <v>334</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5144,13 +5669,13 @@
         <v>387572</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>329</v>
+        <v>370</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>330</v>
+        <v>371</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>331</v>
+        <v>372</v>
       </c>
       <c r="H16" s="7">
         <v>360</v>
@@ -5159,13 +5684,13 @@
         <v>413055</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>332</v>
+        <v>373</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>333</v>
+        <v>374</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>334</v>
+        <v>375</v>
       </c>
       <c r="M16" s="7">
         <v>703</v>
@@ -5174,13 +5699,13 @@
         <v>800627</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>335</v>
+        <v>376</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>336</v>
+        <v>377</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>337</v>
+        <v>378</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5195,13 +5720,13 @@
         <v>89208</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>338</v>
+        <v>379</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>339</v>
+        <v>380</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>340</v>
+        <v>381</v>
       </c>
       <c r="H17" s="7">
         <v>69</v>
@@ -5210,13 +5735,13 @@
         <v>79242</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>341</v>
+        <v>382</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>342</v>
+        <v>383</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>343</v>
+        <v>384</v>
       </c>
       <c r="M17" s="7">
         <v>149</v>
@@ -5225,13 +5750,13 @@
         <v>168450</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>344</v>
+        <v>385</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>345</v>
+        <v>386</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>346</v>
+        <v>387</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5293,49 +5818,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>509</v>
+        <v>256</v>
       </c>
       <c r="D19" s="7">
-        <v>476959</v>
+        <v>260885</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>347</v>
+        <v>388</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>348</v>
+        <v>389</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>349</v>
+        <v>390</v>
       </c>
       <c r="H19" s="7">
-        <v>572</v>
+        <v>310</v>
       </c>
       <c r="I19" s="7">
-        <v>680989</v>
+        <v>332404</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>350</v>
+        <v>391</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>351</v>
+        <v>392</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>352</v>
+        <v>393</v>
       </c>
       <c r="M19" s="7">
-        <v>1081</v>
+        <v>566</v>
       </c>
       <c r="N19" s="7">
-        <v>1157948</v>
+        <v>593290</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>353</v>
+        <v>394</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>354</v>
+        <v>395</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>355</v>
+        <v>396</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5344,49 +5869,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="D20" s="7">
-        <v>112445</v>
+        <v>72386</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>356</v>
+        <v>397</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>357</v>
+        <v>398</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>358</v>
+        <v>399</v>
       </c>
       <c r="H20" s="7">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="I20" s="7">
-        <v>92586</v>
+        <v>42273</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>359</v>
+        <v>400</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>360</v>
+        <v>401</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>361</v>
+        <v>402</v>
       </c>
       <c r="M20" s="7">
-        <v>195</v>
+        <v>109</v>
       </c>
       <c r="N20" s="7">
-        <v>205031</v>
+        <v>114658</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>362</v>
+        <v>403</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>363</v>
+        <v>404</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>364</v>
+        <v>405</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5395,10 +5920,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>625</v>
+        <v>324</v>
       </c>
       <c r="D21" s="7">
-        <v>589404</v>
+        <v>333271</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5410,10 +5935,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>651</v>
+        <v>351</v>
       </c>
       <c r="I21" s="7">
-        <v>773575</v>
+        <v>374677</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -5425,10 +5950,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1276</v>
+        <v>675</v>
       </c>
       <c r="N21" s="7">
-        <v>1362979</v>
+        <v>707948</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5442,55 +5967,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>2541</v>
+        <v>253</v>
       </c>
       <c r="D22" s="7">
-        <v>2669669</v>
+        <v>216073</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>365</v>
+        <v>406</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>366</v>
+        <v>407</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>367</v>
+        <v>408</v>
       </c>
       <c r="H22" s="7">
-        <v>2708</v>
+        <v>262</v>
       </c>
       <c r="I22" s="7">
-        <v>2891205</v>
+        <v>348585</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>368</v>
+        <v>409</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>369</v>
+        <v>410</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>370</v>
+        <v>411</v>
       </c>
       <c r="M22" s="7">
-        <v>5249</v>
+        <v>515</v>
       </c>
       <c r="N22" s="7">
-        <v>5560875</v>
+        <v>564658</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>371</v>
+        <v>412</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>372</v>
+        <v>413</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>373</v>
+        <v>414</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5499,49 +6024,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>675</v>
+        <v>48</v>
       </c>
       <c r="D23" s="7">
-        <v>707279</v>
+        <v>40060</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>374</v>
+        <v>415</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>375</v>
+        <v>416</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>376</v>
+        <v>417</v>
       </c>
       <c r="H23" s="7">
-        <v>609</v>
+        <v>38</v>
       </c>
       <c r="I23" s="7">
-        <v>630475</v>
+        <v>50313</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>377</v>
+        <v>418</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>378</v>
+        <v>419</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>379</v>
+        <v>420</v>
       </c>
       <c r="M23" s="7">
-        <v>1284</v>
+        <v>86</v>
       </c>
       <c r="N23" s="7">
-        <v>1337754</v>
+        <v>90373</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>380</v>
+        <v>421</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>381</v>
+        <v>422</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>382</v>
+        <v>423</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5550,63 +6075,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>301</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256133</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>300</v>
+      </c>
+      <c r="I24" s="7">
+        <v>398898</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>601</v>
+      </c>
+      <c r="N24" s="7">
+        <v>655031</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>2541</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2669669</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="H25" s="7">
+        <v>2708</v>
+      </c>
+      <c r="I25" s="7">
+        <v>2891205</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="M25" s="7">
+        <v>5249</v>
+      </c>
+      <c r="N25" s="7">
+        <v>5560875</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>675</v>
+      </c>
+      <c r="D26" s="7">
+        <v>707279</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="H26" s="7">
+        <v>609</v>
+      </c>
+      <c r="I26" s="7">
+        <v>630475</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="M26" s="7">
+        <v>1284</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1337754</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3216</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3376948</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3317</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3521680</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6533</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6898629</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5619,8 +6300,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3243E483-6D61-42D9-B5A2-92CD2FE79F45}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CA42AD1-7C91-4A56-AD24-3B82A13A7C1E}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5636,7 +6317,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>383</v>
+        <v>442</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5740,46 +6421,46 @@
         <v>77</v>
       </c>
       <c r="D4" s="7">
-        <v>171195</v>
+        <v>171835</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>384</v>
+        <v>443</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>385</v>
+        <v>444</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>386</v>
+        <v>445</v>
       </c>
       <c r="H4" s="7">
         <v>97</v>
       </c>
       <c r="I4" s="7">
-        <v>162589</v>
+        <v>136065</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>387</v>
+        <v>446</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>388</v>
+        <v>447</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>389</v>
+        <v>448</v>
       </c>
       <c r="M4" s="7">
         <v>174</v>
       </c>
       <c r="N4" s="7">
-        <v>333783</v>
+        <v>307900</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>390</v>
+        <v>449</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>391</v>
+        <v>450</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>392</v>
+        <v>451</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5791,46 +6472,46 @@
         <v>93</v>
       </c>
       <c r="D5" s="7">
-        <v>202079</v>
+        <v>223906</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>393</v>
+        <v>452</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>394</v>
+        <v>453</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>395</v>
+        <v>454</v>
       </c>
       <c r="H5" s="7">
         <v>105</v>
       </c>
       <c r="I5" s="7">
-        <v>183763</v>
+        <v>169067</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>396</v>
+        <v>455</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>397</v>
+        <v>456</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>398</v>
+        <v>457</v>
       </c>
       <c r="M5" s="7">
         <v>198</v>
       </c>
       <c r="N5" s="7">
-        <v>385843</v>
+        <v>392973</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>399</v>
+        <v>458</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>400</v>
+        <v>459</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>401</v>
+        <v>460</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5842,7 +6523,7 @@
         <v>170</v>
       </c>
       <c r="D6" s="7">
-        <v>373274</v>
+        <v>395741</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5857,7 +6538,7 @@
         <v>202</v>
       </c>
       <c r="I6" s="7">
-        <v>346352</v>
+        <v>305132</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5872,7 +6553,7 @@
         <v>372</v>
       </c>
       <c r="N6" s="7">
-        <v>719626</v>
+        <v>700873</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5895,46 +6576,46 @@
         <v>187</v>
       </c>
       <c r="D7" s="7">
-        <v>255875</v>
+        <v>248854</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>17</v>
+        <v>461</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>402</v>
+        <v>462</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>403</v>
+        <v>463</v>
       </c>
       <c r="H7" s="7">
         <v>263</v>
       </c>
       <c r="I7" s="7">
-        <v>265522</v>
+        <v>239065</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>404</v>
+        <v>464</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>405</v>
+        <v>465</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>406</v>
+        <v>466</v>
       </c>
       <c r="M7" s="7">
         <v>450</v>
       </c>
       <c r="N7" s="7">
-        <v>521397</v>
+        <v>487919</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>407</v>
+        <v>467</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>408</v>
+        <v>468</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>409</v>
+        <v>469</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5946,46 +6627,46 @@
         <v>114</v>
       </c>
       <c r="D8" s="7">
-        <v>171141</v>
+        <v>173299</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>27</v>
+        <v>470</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>410</v>
+        <v>471</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>411</v>
+        <v>472</v>
       </c>
       <c r="H8" s="7">
         <v>193</v>
       </c>
       <c r="I8" s="7">
-        <v>229839</v>
+        <v>269450</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>412</v>
+        <v>473</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>413</v>
+        <v>474</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>414</v>
+        <v>475</v>
       </c>
       <c r="M8" s="7">
         <v>307</v>
       </c>
       <c r="N8" s="7">
-        <v>400980</v>
+        <v>442750</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>415</v>
+        <v>476</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>416</v>
+        <v>477</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>417</v>
+        <v>478</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5997,7 +6678,7 @@
         <v>301</v>
       </c>
       <c r="D9" s="7">
-        <v>427016</v>
+        <v>422153</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -6012,7 +6693,7 @@
         <v>456</v>
       </c>
       <c r="I9" s="7">
-        <v>495361</v>
+        <v>508515</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -6027,7 +6708,7 @@
         <v>757</v>
       </c>
       <c r="N9" s="7">
-        <v>922377</v>
+        <v>930669</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -6050,46 +6731,46 @@
         <v>345</v>
       </c>
       <c r="D10" s="7">
-        <v>340445</v>
+        <v>322647</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>418</v>
+        <v>479</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>419</v>
+        <v>170</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>420</v>
+        <v>480</v>
       </c>
       <c r="H10" s="7">
         <v>529</v>
       </c>
       <c r="I10" s="7">
-        <v>351745</v>
+        <v>324041</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>421</v>
+        <v>481</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>422</v>
+        <v>482</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>423</v>
+        <v>483</v>
       </c>
       <c r="M10" s="7">
         <v>874</v>
       </c>
       <c r="N10" s="7">
-        <v>692190</v>
+        <v>646687</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>424</v>
+        <v>484</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>425</v>
+        <v>485</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>426</v>
+        <v>486</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6101,46 +6782,46 @@
         <v>196</v>
       </c>
       <c r="D11" s="7">
-        <v>212672</v>
+        <v>209643</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>427</v>
+        <v>487</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>428</v>
+        <v>488</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>429</v>
+        <v>180</v>
       </c>
       <c r="H11" s="7">
         <v>314</v>
       </c>
       <c r="I11" s="7">
-        <v>229927</v>
+        <v>216805</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>430</v>
+        <v>489</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>431</v>
+        <v>490</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>432</v>
+        <v>491</v>
       </c>
       <c r="M11" s="7">
         <v>510</v>
       </c>
       <c r="N11" s="7">
-        <v>442600</v>
+        <v>426448</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>433</v>
+        <v>492</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>434</v>
+        <v>493</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>435</v>
+        <v>494</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6152,7 +6833,7 @@
         <v>541</v>
       </c>
       <c r="D12" s="7">
-        <v>553117</v>
+        <v>532290</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -6167,7 +6848,7 @@
         <v>843</v>
       </c>
       <c r="I12" s="7">
-        <v>581672</v>
+        <v>540846</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -6182,7 +6863,7 @@
         <v>1384</v>
       </c>
       <c r="N12" s="7">
-        <v>1134790</v>
+        <v>1073135</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -6205,46 +6886,46 @@
         <v>411</v>
       </c>
       <c r="D13" s="7">
-        <v>410373</v>
+        <v>388934</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>436</v>
+        <v>495</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>437</v>
+        <v>496</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>438</v>
+        <v>497</v>
       </c>
       <c r="H13" s="7">
         <v>727</v>
       </c>
       <c r="I13" s="7">
-        <v>469368</v>
+        <v>428491</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>439</v>
+        <v>498</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>440</v>
+        <v>499</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>441</v>
+        <v>500</v>
       </c>
       <c r="M13" s="7">
         <v>1138</v>
       </c>
       <c r="N13" s="7">
-        <v>879741</v>
+        <v>817425</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>442</v>
+        <v>501</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>443</v>
+        <v>502</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>444</v>
+        <v>503</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6256,46 +6937,46 @@
         <v>246</v>
       </c>
       <c r="D14" s="7">
-        <v>305411</v>
+        <v>491187</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>445</v>
+        <v>504</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>446</v>
+        <v>505</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>447</v>
+        <v>506</v>
       </c>
       <c r="H14" s="7">
         <v>400</v>
       </c>
       <c r="I14" s="7">
-        <v>268015</v>
+        <v>275121</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>448</v>
+        <v>507</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>449</v>
+        <v>508</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>450</v>
+        <v>509</v>
       </c>
       <c r="M14" s="7">
         <v>646</v>
       </c>
       <c r="N14" s="7">
-        <v>573426</v>
+        <v>766308</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>451</v>
+        <v>510</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>452</v>
+        <v>511</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>453</v>
+        <v>512</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6307,7 +6988,7 @@
         <v>657</v>
       </c>
       <c r="D15" s="7">
-        <v>715784</v>
+        <v>880121</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -6322,7 +7003,7 @@
         <v>1127</v>
       </c>
       <c r="I15" s="7">
-        <v>737383</v>
+        <v>703612</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -6337,7 +7018,7 @@
         <v>1784</v>
       </c>
       <c r="N15" s="7">
-        <v>1453167</v>
+        <v>1583733</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6360,46 +7041,46 @@
         <v>457</v>
       </c>
       <c r="D16" s="7">
-        <v>410909</v>
+        <v>379593</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>454</v>
+        <v>513</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>455</v>
+        <v>514</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>456</v>
+        <v>515</v>
       </c>
       <c r="H16" s="7">
         <v>711</v>
       </c>
       <c r="I16" s="7">
-        <v>423216</v>
+        <v>385679</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>457</v>
+        <v>516</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>458</v>
+        <v>517</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>459</v>
+        <v>518</v>
       </c>
       <c r="M16" s="7">
         <v>1168</v>
       </c>
       <c r="N16" s="7">
-        <v>834125</v>
+        <v>765272</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>460</v>
+        <v>519</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>461</v>
+        <v>520</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>462</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6411,46 +7092,46 @@
         <v>203</v>
       </c>
       <c r="D17" s="7">
-        <v>186524</v>
+        <v>179092</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>463</v>
+        <v>521</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>464</v>
+        <v>522</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>465</v>
+        <v>523</v>
       </c>
       <c r="H17" s="7">
         <v>277</v>
       </c>
       <c r="I17" s="7">
-        <v>165920</v>
+        <v>154853</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>466</v>
+        <v>524</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>467</v>
+        <v>525</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>468</v>
+        <v>526</v>
       </c>
       <c r="M17" s="7">
         <v>480</v>
       </c>
       <c r="N17" s="7">
-        <v>352444</v>
+        <v>333945</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>469</v>
+        <v>527</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>470</v>
+        <v>247</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>471</v>
+        <v>528</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6462,7 +7143,7 @@
         <v>660</v>
       </c>
       <c r="D18" s="7">
-        <v>597433</v>
+        <v>558685</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -6477,7 +7158,7 @@
         <v>988</v>
       </c>
       <c r="I18" s="7">
-        <v>589136</v>
+        <v>540532</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -6492,7 +7173,7 @@
         <v>1648</v>
       </c>
       <c r="N18" s="7">
-        <v>1186569</v>
+        <v>1099217</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6512,49 +7193,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>701</v>
+        <v>376</v>
       </c>
       <c r="D19" s="7">
-        <v>473670</v>
+        <v>241177</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>472</v>
+        <v>529</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>473</v>
+        <v>530</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>474</v>
+        <v>73</v>
       </c>
       <c r="H19" s="7">
-        <v>1171</v>
+        <v>527</v>
       </c>
       <c r="I19" s="7">
-        <v>633449</v>
+        <v>257679</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>475</v>
+        <v>531</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>476</v>
+        <v>532</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>477</v>
+        <v>533</v>
       </c>
       <c r="M19" s="7">
-        <v>1872</v>
+        <v>903</v>
       </c>
       <c r="N19" s="7">
-        <v>1107119</v>
+        <v>498856</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>478</v>
+        <v>534</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>479</v>
+        <v>535</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>480</v>
+        <v>536</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6563,49 +7244,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>310</v>
+        <v>188</v>
       </c>
       <c r="D20" s="7">
-        <v>212075</v>
+        <v>122781</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>481</v>
+        <v>537</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>482</v>
+        <v>82</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>483</v>
+        <v>538</v>
       </c>
       <c r="H20" s="7">
-        <v>500</v>
+        <v>281</v>
       </c>
       <c r="I20" s="7">
-        <v>261242</v>
+        <v>135155</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>484</v>
+        <v>539</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>485</v>
+        <v>540</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>486</v>
+        <v>541</v>
       </c>
       <c r="M20" s="7">
-        <v>810</v>
+        <v>469</v>
       </c>
       <c r="N20" s="7">
-        <v>473317</v>
+        <v>257936</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>487</v>
+        <v>542</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>488</v>
+        <v>543</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>489</v>
+        <v>544</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6614,10 +7295,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1011</v>
+        <v>564</v>
       </c>
       <c r="D21" s="7">
-        <v>685745</v>
+        <v>363958</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6629,10 +7310,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1671</v>
+        <v>808</v>
       </c>
       <c r="I21" s="7">
-        <v>894691</v>
+        <v>392834</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -6644,10 +7325,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2682</v>
+        <v>1372</v>
       </c>
       <c r="N21" s="7">
-        <v>1580436</v>
+        <v>756792</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -6661,55 +7342,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>2178</v>
+        <v>325</v>
       </c>
       <c r="D22" s="7">
-        <v>2062467</v>
+        <v>195576</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>490</v>
+        <v>545</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>491</v>
+        <v>546</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>439</v>
+        <v>322</v>
       </c>
       <c r="H22" s="7">
-        <v>3498</v>
+        <v>644</v>
       </c>
       <c r="I22" s="7">
-        <v>2305889</v>
+        <v>310208</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>492</v>
+        <v>547</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>493</v>
+        <v>548</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>179</v>
+        <v>549</v>
       </c>
       <c r="M22" s="7">
-        <v>5676</v>
+        <v>969</v>
       </c>
       <c r="N22" s="7">
-        <v>4368356</v>
+        <v>505783</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>494</v>
+        <v>550</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>495</v>
+        <v>304</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>496</v>
+        <v>551</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6718,49 +7399,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1162</v>
+        <v>122</v>
       </c>
       <c r="D23" s="7">
-        <v>1289903</v>
+        <v>79907</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>497</v>
+        <v>552</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>448</v>
+        <v>332</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>498</v>
+        <v>553</v>
       </c>
       <c r="H23" s="7">
-        <v>1789</v>
+        <v>219</v>
       </c>
       <c r="I23" s="7">
-        <v>1338707</v>
+        <v>106198</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>499</v>
+        <v>554</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>189</v>
+        <v>555</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="M23" s="7">
-        <v>2951</v>
+        <v>341</v>
       </c>
       <c r="N23" s="7">
-        <v>2628610</v>
+        <v>186106</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>501</v>
+        <v>557</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>502</v>
+        <v>558</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>503</v>
+        <v>314</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6769,63 +7450,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>447</v>
+      </c>
+      <c r="D24" s="7">
+        <v>275483</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>863</v>
+      </c>
+      <c r="I24" s="7">
+        <v>416406</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1310</v>
+      </c>
+      <c r="N24" s="7">
+        <v>691889</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>2178</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1948615</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="H25" s="7">
+        <v>3498</v>
+      </c>
+      <c r="I25" s="7">
+        <v>2081228</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="M25" s="7">
+        <v>5676</v>
+      </c>
+      <c r="N25" s="7">
+        <v>4029843</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1162</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1479816</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1789</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1326648</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="M26" s="7">
+        <v>2951</v>
+      </c>
+      <c r="N26" s="7">
+        <v>2806464</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3340</v>
       </c>
-      <c r="D24" s="7">
-        <v>3352370</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3428431</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>5287</v>
       </c>
-      <c r="I24" s="7">
-        <v>3644596</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3407876</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>8627</v>
       </c>
-      <c r="N24" s="7">
-        <v>6996966</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="N27" s="7">
+        <v>6836307</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
